--- a/raw_data/20200818_saline/20200818_Sensor0_Test_46.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_46.xlsx
@@ -1,993 +1,1409 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3243909-E9AA-4C79-A7D2-EEC035C8F26D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>40502.880810</v>
+        <v>40502.880810000002</v>
       </c>
       <c r="B2" s="1">
-        <v>11.250800</v>
+        <v>11.2508</v>
       </c>
       <c r="C2" s="1">
-        <v>913.798000</v>
+        <v>913.798</v>
       </c>
       <c r="D2" s="1">
-        <v>-175.173000</v>
+        <v>-175.173</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>40513.584475</v>
+        <v>40513.584475000003</v>
       </c>
       <c r="G2" s="1">
-        <v>11.253773</v>
+        <v>11.253773000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>927.712000</v>
+        <v>927.71199999999999</v>
       </c>
       <c r="I2" s="1">
-        <v>-149.881000</v>
+        <v>-149.881</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>40524.147773</v>
+        <v>40524.147772999997</v>
       </c>
       <c r="L2" s="1">
         <v>11.256708</v>
       </c>
       <c r="M2" s="1">
-        <v>947.198000</v>
+        <v>947.19799999999998</v>
       </c>
       <c r="N2" s="1">
-        <v>-110.228000</v>
+        <v>-110.22799999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>40534.333616</v>
+        <v>40534.333616000004</v>
       </c>
       <c r="Q2" s="1">
         <v>11.259537</v>
       </c>
       <c r="R2" s="1">
-        <v>953.825000</v>
+        <v>953.82500000000005</v>
       </c>
       <c r="S2" s="1">
-        <v>-97.608300</v>
+        <v>-97.6083</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>40544.522932</v>
       </c>
       <c r="V2" s="1">
-        <v>11.262367</v>
+        <v>11.262366999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>960.653000</v>
+        <v>960.65300000000002</v>
       </c>
       <c r="X2" s="1">
-        <v>-86.322800</v>
+        <v>-86.322800000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>40554.627957</v>
+        <v>40554.627956999997</v>
       </c>
       <c r="AA2" s="1">
         <v>11.265174</v>
       </c>
       <c r="AB2" s="1">
-        <v>968.621000</v>
+        <v>968.62099999999998</v>
       </c>
       <c r="AC2" s="1">
-        <v>-78.825400</v>
+        <v>-78.825400000000002</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>40564.544471</v>
+        <v>40564.544471000001</v>
       </c>
       <c r="AF2" s="1">
-        <v>11.267929</v>
+        <v>11.267929000000001</v>
       </c>
       <c r="AG2" s="1">
-        <v>974.116000</v>
+        <v>974.11599999999999</v>
       </c>
       <c r="AH2" s="1">
-        <v>-79.239400</v>
+        <v>-79.239400000000003</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>40574.647486</v>
+        <v>40574.647486000002</v>
       </c>
       <c r="AK2" s="1">
         <v>11.270735</v>
       </c>
       <c r="AL2" s="1">
-        <v>982.568000</v>
+        <v>982.56799999999998</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.630800</v>
+        <v>-87.630799999999994</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>40585.902206</v>
+        <v>40585.902205999999</v>
       </c>
       <c r="AP2" s="1">
-        <v>11.273862</v>
+        <v>11.273861999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>992.020000</v>
+        <v>992.02</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.875000</v>
+        <v>-102.875</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>40596.874211</v>
+        <v>40596.874211000002</v>
       </c>
       <c r="AU2" s="1">
-        <v>11.276910</v>
+        <v>11.276910000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>1003.470000</v>
+        <v>1003.47</v>
       </c>
       <c r="AW2" s="1">
-        <v>-124.790000</v>
+        <v>-124.79</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>40607.727135</v>
+        <v>40607.727135000001</v>
       </c>
       <c r="AZ2" s="1">
-        <v>11.279924</v>
+        <v>11.279923999999999</v>
       </c>
       <c r="BA2" s="1">
-        <v>1013.060000</v>
+        <v>1013.06</v>
       </c>
       <c r="BB2" s="1">
-        <v>-143.744000</v>
+        <v>-143.744</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>40619.066208</v>
+        <v>40619.066207999997</v>
       </c>
       <c r="BE2" s="1">
-        <v>11.283074</v>
+        <v>11.283073999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1058.260000</v>
+        <v>1058.26</v>
       </c>
       <c r="BG2" s="1">
-        <v>-229.667000</v>
+        <v>-229.667</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>40630.117073</v>
+        <v>40630.117073000001</v>
       </c>
       <c r="BJ2" s="1">
         <v>11.286144</v>
       </c>
       <c r="BK2" s="1">
-        <v>1137.680000</v>
+        <v>1137.68</v>
       </c>
       <c r="BL2" s="1">
-        <v>-368.194000</v>
+        <v>-368.19400000000002</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>40641.616816</v>
+        <v>40641.616816000002</v>
       </c>
       <c r="BO2" s="1">
-        <v>11.289338</v>
+        <v>11.289338000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1269.720000</v>
+        <v>1269.72</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-583.006000</v>
+        <v>-583.00599999999997</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>40652.369060</v>
+        <v>40652.369059999997</v>
       </c>
       <c r="BT2" s="1">
         <v>11.292325</v>
       </c>
       <c r="BU2" s="1">
-        <v>1418.330000</v>
+        <v>1418.33</v>
       </c>
       <c r="BV2" s="1">
-        <v>-813.016000</v>
+        <v>-813.01599999999996</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>40663.742126</v>
+        <v>40663.742125999997</v>
       </c>
       <c r="BY2" s="1">
         <v>11.295484</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1582.580000</v>
+        <v>1582.58</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1054.060000</v>
+        <v>-1054.06</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>40674.679607</v>
+        <v>40674.679606999998</v>
       </c>
       <c r="CD2" s="1">
         <v>11.298522</v>
       </c>
       <c r="CE2" s="1">
-        <v>1999.040000</v>
+        <v>1999.04</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1618.300000</v>
+        <v>-1618.3</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>40503.556411</v>
+        <v>40503.556410999998</v>
       </c>
       <c r="B3" s="1">
         <v>11.250988</v>
       </c>
       <c r="C3" s="1">
-        <v>913.883000</v>
+        <v>913.88300000000004</v>
       </c>
       <c r="D3" s="1">
-        <v>-175.351000</v>
+        <v>-175.351</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>40513.993675</v>
+        <v>40513.993674999998</v>
       </c>
       <c r="G3" s="1">
-        <v>11.253887</v>
+        <v>11.253887000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>927.822000</v>
+        <v>927.822</v>
       </c>
       <c r="I3" s="1">
-        <v>-149.694000</v>
+        <v>-149.69399999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>40524.496958</v>
+        <v>40524.496958000003</v>
       </c>
       <c r="L3" s="1">
         <v>11.256805</v>
       </c>
       <c r="M3" s="1">
-        <v>947.341000</v>
+        <v>947.34100000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>-110.332000</v>
+        <v>-110.33199999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>40534.687791</v>
+        <v>40534.687790999997</v>
       </c>
       <c r="Q3" s="1">
-        <v>11.259635</v>
+        <v>11.259634999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>953.834000</v>
+        <v>953.83399999999995</v>
       </c>
       <c r="S3" s="1">
-        <v>-97.641600</v>
+        <v>-97.641599999999997</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>40544.902884</v>
+        <v>40544.902884000003</v>
       </c>
       <c r="V3" s="1">
         <v>11.262473</v>
       </c>
       <c r="W3" s="1">
-        <v>960.588000</v>
+        <v>960.58799999999997</v>
       </c>
       <c r="X3" s="1">
-        <v>-86.268500</v>
+        <v>-86.268500000000003</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>40555.008357</v>
+        <v>40555.008356999999</v>
       </c>
       <c r="AA3" s="1">
-        <v>11.265280</v>
+        <v>11.265280000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>968.655000</v>
+        <v>968.65499999999997</v>
       </c>
       <c r="AC3" s="1">
-        <v>-78.823900</v>
+        <v>-78.823899999999995</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>40564.961081</v>
+        <v>40564.961081000001</v>
       </c>
       <c r="AF3" s="1">
-        <v>11.268045</v>
+        <v>11.268045000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>974.137000</v>
+        <v>974.13699999999994</v>
       </c>
       <c r="AH3" s="1">
-        <v>-79.246800</v>
+        <v>-79.246799999999993</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>40575.066754</v>
+        <v>40575.066753999999</v>
       </c>
       <c r="AK3" s="1">
         <v>11.270852</v>
       </c>
       <c r="AL3" s="1">
-        <v>982.609000</v>
+        <v>982.60900000000004</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.642000</v>
+        <v>-87.641999999999996</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>40586.337163</v>
+        <v>40586.337162999997</v>
       </c>
       <c r="AP3" s="1">
-        <v>11.273983</v>
+        <v>11.273982999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>992.017000</v>
+        <v>992.01700000000005</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.867000</v>
+        <v>-102.867</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>40596.982341</v>
+        <v>40596.982341000003</v>
       </c>
       <c r="AU3" s="1">
-        <v>11.276940</v>
+        <v>11.27694</v>
       </c>
       <c r="AV3" s="1">
-        <v>1003.460000</v>
+        <v>1003.46</v>
       </c>
       <c r="AW3" s="1">
-        <v>-124.795000</v>
+        <v>-124.795</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>40608.091696</v>
+        <v>40608.091696000003</v>
       </c>
       <c r="AZ3" s="1">
         <v>11.280025</v>
       </c>
       <c r="BA3" s="1">
-        <v>1013.100000</v>
+        <v>1013.1</v>
       </c>
       <c r="BB3" s="1">
-        <v>-143.740000</v>
+        <v>-143.74</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>40619.430269</v>
+        <v>40619.430268999997</v>
       </c>
       <c r="BE3" s="1">
         <v>11.283175</v>
       </c>
       <c r="BF3" s="1">
-        <v>1058.240000</v>
+        <v>1058.24</v>
       </c>
       <c r="BG3" s="1">
-        <v>-229.684000</v>
+        <v>-229.684</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>40630.492545</v>
+        <v>40630.492545000001</v>
       </c>
       <c r="BJ3" s="1">
-        <v>11.286248</v>
+        <v>11.286248000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1137.670000</v>
+        <v>1137.67</v>
       </c>
       <c r="BL3" s="1">
-        <v>-368.194000</v>
+        <v>-368.19400000000002</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>40642.044337</v>
+        <v>40642.044336999999</v>
       </c>
       <c r="BO3" s="1">
-        <v>11.289457</v>
+        <v>11.289457000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1269.720000</v>
+        <v>1269.72</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-582.996000</v>
+        <v>-582.99599999999998</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>40652.803091</v>
+        <v>40652.803091000002</v>
       </c>
       <c r="BT3" s="1">
-        <v>11.292445</v>
+        <v>11.292445000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>1418.320000</v>
+        <v>1418.32</v>
       </c>
       <c r="BV3" s="1">
-        <v>-812.970000</v>
+        <v>-812.97</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>40664.206086</v>
+        <v>40664.206085999998</v>
       </c>
       <c r="BY3" s="1">
-        <v>11.295613</v>
+        <v>11.295612999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1582.600000</v>
+        <v>1582.6</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1054.090000</v>
+        <v>-1054.0899999999999</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>40675.242071</v>
+        <v>40675.242071000001</v>
       </c>
       <c r="CD3" s="1">
-        <v>11.298678</v>
+        <v>11.298678000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>1998.230000</v>
+        <v>1998.23</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1616.840000</v>
+        <v>-1616.84</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>40503.938317</v>
       </c>
@@ -995,330 +1411,330 @@
         <v>11.251094</v>
       </c>
       <c r="C4" s="1">
-        <v>914.107000</v>
+        <v>914.10699999999997</v>
       </c>
       <c r="D4" s="1">
-        <v>-175.177000</v>
+        <v>-175.17699999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>40514.342890</v>
+        <v>40514.34289</v>
       </c>
       <c r="G4" s="1">
-        <v>11.253984</v>
+        <v>11.253984000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>927.257000</v>
+        <v>927.25699999999995</v>
       </c>
       <c r="I4" s="1">
-        <v>-149.961000</v>
+        <v>-149.96100000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>40524.840717</v>
+        <v>40524.840716999999</v>
       </c>
       <c r="L4" s="1">
-        <v>11.256900</v>
+        <v>11.2569</v>
       </c>
       <c r="M4" s="1">
-        <v>947.398000</v>
+        <v>947.39800000000002</v>
       </c>
       <c r="N4" s="1">
-        <v>-110.494000</v>
+        <v>-110.494</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>40535.035951</v>
+        <v>40535.035950999998</v>
       </c>
       <c r="Q4" s="1">
         <v>11.259732</v>
       </c>
       <c r="R4" s="1">
-        <v>953.778000</v>
+        <v>953.77800000000002</v>
       </c>
       <c r="S4" s="1">
-        <v>-97.650400</v>
+        <v>-97.650400000000005</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>40545.311569</v>
+        <v>40545.311568999998</v>
       </c>
       <c r="V4" s="1">
         <v>11.262587</v>
       </c>
       <c r="W4" s="1">
-        <v>960.619000</v>
+        <v>960.61900000000003</v>
       </c>
       <c r="X4" s="1">
-        <v>-86.300800</v>
+        <v>-86.300799999999995</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>40555.430452</v>
+        <v>40555.430452000001</v>
       </c>
       <c r="AA4" s="1">
         <v>11.265397</v>
       </c>
       <c r="AB4" s="1">
-        <v>968.549000</v>
+        <v>968.54899999999998</v>
       </c>
       <c r="AC4" s="1">
-        <v>-78.831000</v>
+        <v>-78.831000000000003</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>40565.269628</v>
+        <v>40565.269628000002</v>
       </c>
       <c r="AF4" s="1">
-        <v>11.268130</v>
+        <v>11.268129999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>974.129000</v>
+        <v>974.12900000000002</v>
       </c>
       <c r="AH4" s="1">
-        <v>-79.296200</v>
+        <v>-79.296199999999999</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>40575.411290</v>
+        <v>40575.411289999996</v>
       </c>
       <c r="AK4" s="1">
-        <v>11.270948</v>
+        <v>11.270948000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>982.593000</v>
+        <v>982.59299999999996</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.638500</v>
+        <v>-87.638499999999993</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>40586.693786</v>
+        <v>40586.693786000003</v>
       </c>
       <c r="AP4" s="1">
         <v>11.274082</v>
       </c>
       <c r="AQ4" s="1">
-        <v>991.994000</v>
+        <v>991.99400000000003</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.885000</v>
+        <v>-102.88500000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>40597.375628</v>
+        <v>40597.375628000002</v>
       </c>
       <c r="AU4" s="1">
         <v>11.277049</v>
       </c>
       <c r="AV4" s="1">
-        <v>1003.460000</v>
+        <v>1003.46</v>
       </c>
       <c r="AW4" s="1">
-        <v>-124.805000</v>
+        <v>-124.80500000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>40608.450833</v>
+        <v>40608.450833000003</v>
       </c>
       <c r="AZ4" s="1">
         <v>11.280125</v>
       </c>
       <c r="BA4" s="1">
-        <v>1013.090000</v>
+        <v>1013.09</v>
       </c>
       <c r="BB4" s="1">
-        <v>-143.738000</v>
+        <v>-143.738</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>40620.156382</v>
+        <v>40620.156382000001</v>
       </c>
       <c r="BE4" s="1">
         <v>11.283377</v>
       </c>
       <c r="BF4" s="1">
-        <v>1058.250000</v>
+        <v>1058.25</v>
       </c>
       <c r="BG4" s="1">
-        <v>-229.684000</v>
+        <v>-229.684</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>40631.242959</v>
+        <v>40631.242959000003</v>
       </c>
       <c r="BJ4" s="1">
-        <v>11.286456</v>
+        <v>11.286455999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1137.700000</v>
+        <v>1137.7</v>
       </c>
       <c r="BL4" s="1">
-        <v>-368.175000</v>
+        <v>-368.17500000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>40642.454561</v>
+        <v>40642.454560999999</v>
       </c>
       <c r="BO4" s="1">
         <v>11.289571</v>
       </c>
       <c r="BP4" s="1">
-        <v>1269.670000</v>
+        <v>1269.67</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-583.054000</v>
+        <v>-583.05399999999997</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>40653.220196</v>
+        <v>40653.220196000002</v>
       </c>
       <c r="BT4" s="1">
-        <v>11.292561</v>
+        <v>11.292560999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>1418.410000</v>
+        <v>1418.41</v>
       </c>
       <c r="BV4" s="1">
-        <v>-813.004000</v>
+        <v>-813.00400000000002</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>40664.627188</v>
+        <v>40664.627187999999</v>
       </c>
       <c r="BY4" s="1">
-        <v>11.295730</v>
+        <v>11.295730000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1582.570000</v>
+        <v>1582.57</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1054.020000</v>
+        <v>-1054.02</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>40676.084308</v>
+        <v>40676.084307999998</v>
       </c>
       <c r="CD4" s="1">
         <v>11.298912</v>
       </c>
       <c r="CE4" s="1">
-        <v>1999.440000</v>
+        <v>1999.44</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1617.870000</v>
+        <v>-1617.87</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>40504.282007</v>
+        <v>40504.282007000002</v>
       </c>
       <c r="B5" s="1">
         <v>11.251189</v>
       </c>
       <c r="C5" s="1">
-        <v>914.049000</v>
+        <v>914.04899999999998</v>
       </c>
       <c r="D5" s="1">
-        <v>-175.278000</v>
+        <v>-175.27799999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>40514.686123</v>
+        <v>40514.686122999999</v>
       </c>
       <c r="G5" s="1">
-        <v>11.254079</v>
+        <v>11.254079000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>927.472000</v>
+        <v>927.47199999999998</v>
       </c>
       <c r="I5" s="1">
-        <v>-149.612000</v>
+        <v>-149.61199999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>40525.258316</v>
+        <v>40525.258315999999</v>
       </c>
       <c r="L5" s="1">
         <v>11.257016</v>
       </c>
       <c r="M5" s="1">
-        <v>947.360000</v>
+        <v>947.36</v>
       </c>
       <c r="N5" s="1">
-        <v>-110.392000</v>
+        <v>-110.392</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>40535.454575</v>
+        <v>40535.454575000003</v>
       </c>
       <c r="Q5" s="1">
         <v>11.259848</v>
       </c>
       <c r="R5" s="1">
-        <v>953.796000</v>
+        <v>953.79600000000005</v>
       </c>
       <c r="S5" s="1">
-        <v>-97.633800</v>
+        <v>-97.633799999999994</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>40545.591314</v>
+        <v>40545.591313999998</v>
       </c>
       <c r="V5" s="1">
-        <v>11.262664</v>
+        <v>11.262663999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>960.588000</v>
+        <v>960.58799999999997</v>
       </c>
       <c r="X5" s="1">
-        <v>-86.290200</v>
+        <v>-86.290199999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
         <v>40555.735126</v>
@@ -1327,405 +1743,405 @@
         <v>11.265482</v>
       </c>
       <c r="AB5" s="1">
-        <v>968.612000</v>
+        <v>968.61199999999997</v>
       </c>
       <c r="AC5" s="1">
-        <v>-78.929500</v>
+        <v>-78.929500000000004</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>40565.611334</v>
+        <v>40565.611334000001</v>
       </c>
       <c r="AF5" s="1">
-        <v>11.268225</v>
+        <v>11.268224999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>974.131000</v>
+        <v>974.13099999999997</v>
       </c>
       <c r="AH5" s="1">
-        <v>-79.244400</v>
+        <v>-79.244399999999999</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>40575.762489</v>
+        <v>40575.762489000001</v>
       </c>
       <c r="AK5" s="1">
-        <v>11.271045</v>
+        <v>11.271045000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>982.591000</v>
+        <v>982.59100000000001</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.641000</v>
+        <v>-87.641000000000005</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>40587.054379</v>
+        <v>40587.054379000001</v>
       </c>
       <c r="AP5" s="1">
         <v>11.274182</v>
       </c>
       <c r="AQ5" s="1">
-        <v>991.996000</v>
+        <v>991.99599999999998</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.860000</v>
+        <v>-102.86</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>40598.007037</v>
+        <v>40598.007037000003</v>
       </c>
       <c r="AU5" s="1">
         <v>11.277224</v>
       </c>
       <c r="AV5" s="1">
-        <v>1003.460000</v>
+        <v>1003.46</v>
       </c>
       <c r="AW5" s="1">
-        <v>-124.789000</v>
+        <v>-124.789</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>40609.166525</v>
+        <v>40609.166525000001</v>
       </c>
       <c r="AZ5" s="1">
         <v>11.280324</v>
       </c>
       <c r="BA5" s="1">
-        <v>1013.090000</v>
+        <v>1013.09</v>
       </c>
       <c r="BB5" s="1">
-        <v>-143.723000</v>
+        <v>-143.72300000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>40620.542766</v>
+        <v>40620.542765999999</v>
       </c>
       <c r="BE5" s="1">
         <v>11.283484</v>
       </c>
       <c r="BF5" s="1">
-        <v>1058.240000</v>
+        <v>1058.24</v>
       </c>
       <c r="BG5" s="1">
-        <v>-229.695000</v>
+        <v>-229.69499999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>40631.642239</v>
+        <v>40631.642239000001</v>
       </c>
       <c r="BJ5" s="1">
         <v>11.286567</v>
       </c>
       <c r="BK5" s="1">
-        <v>1137.680000</v>
+        <v>1137.68</v>
       </c>
       <c r="BL5" s="1">
-        <v>-368.199000</v>
+        <v>-368.19900000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>40642.851824</v>
+        <v>40642.851823999998</v>
       </c>
       <c r="BO5" s="1">
         <v>11.289681</v>
       </c>
       <c r="BP5" s="1">
-        <v>1269.750000</v>
+        <v>1269.75</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-583.075000</v>
+        <v>-583.07500000000005</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>40653.634850</v>
+        <v>40653.634850000002</v>
       </c>
       <c r="BT5" s="1">
         <v>11.292676</v>
       </c>
       <c r="BU5" s="1">
-        <v>1418.420000</v>
+        <v>1418.42</v>
       </c>
       <c r="BV5" s="1">
-        <v>-812.961000</v>
+        <v>-812.96100000000001</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>40665.350850</v>
+        <v>40665.350850000003</v>
       </c>
       <c r="BY5" s="1">
         <v>11.295931</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1582.430000</v>
+        <v>1582.43</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1053.980000</v>
+        <v>-1053.98</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>40676.320869</v>
+        <v>40676.320869000003</v>
       </c>
       <c r="CD5" s="1">
         <v>11.298978</v>
       </c>
       <c r="CE5" s="1">
-        <v>1999.440000</v>
+        <v>1999.44</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1617.860000</v>
+        <v>-1617.86</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>40504.699675</v>
+        <v>40504.699675000003</v>
       </c>
       <c r="B6" s="1">
         <v>11.251305</v>
       </c>
       <c r="C6" s="1">
-        <v>914.062000</v>
+        <v>914.06200000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>-175.271000</v>
+        <v>-175.27099999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>40515.102761</v>
+        <v>40515.102761000002</v>
       </c>
       <c r="G6" s="1">
-        <v>11.254195</v>
+        <v>11.254194999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>928.029000</v>
+        <v>928.029</v>
       </c>
       <c r="I6" s="1">
-        <v>-149.302000</v>
+        <v>-149.30199999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>40525.534092</v>
+        <v>40525.534092000002</v>
       </c>
       <c r="L6" s="1">
-        <v>11.257093</v>
+        <v>11.257092999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>947.246000</v>
+        <v>947.24599999999998</v>
       </c>
       <c r="N6" s="1">
-        <v>-110.288000</v>
+        <v>-110.288</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>40535.733822</v>
+        <v>40535.733822000002</v>
       </c>
       <c r="Q6" s="1">
         <v>11.259926</v>
       </c>
       <c r="R6" s="1">
-        <v>953.768000</v>
+        <v>953.76800000000003</v>
       </c>
       <c r="S6" s="1">
-        <v>-97.605300</v>
+        <v>-97.6053</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>40545.934049</v>
+        <v>40545.934049000003</v>
       </c>
       <c r="V6" s="1">
-        <v>11.262759</v>
+        <v>11.262759000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>960.667000</v>
+        <v>960.66700000000003</v>
       </c>
       <c r="X6" s="1">
-        <v>-86.369900</v>
+        <v>-86.369900000000001</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>40556.080710</v>
+        <v>40556.080710000002</v>
       </c>
       <c r="AA6" s="1">
         <v>11.265578</v>
       </c>
       <c r="AB6" s="1">
-        <v>968.596000</v>
+        <v>968.596</v>
       </c>
       <c r="AC6" s="1">
-        <v>-78.961100</v>
+        <v>-78.961100000000002</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>40565.958566</v>
+        <v>40565.958566000001</v>
       </c>
       <c r="AF6" s="1">
         <v>11.268322</v>
       </c>
       <c r="AG6" s="1">
-        <v>974.144000</v>
+        <v>974.14400000000001</v>
       </c>
       <c r="AH6" s="1">
-        <v>-79.277100</v>
+        <v>-79.277100000000004</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>40576.111640</v>
+        <v>40576.111640000003</v>
       </c>
       <c r="AK6" s="1">
-        <v>11.271142</v>
+        <v>11.271141999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>982.604000</v>
+        <v>982.60400000000004</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.633200</v>
+        <v>-87.633200000000002</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>40587.765641</v>
+        <v>40587.765640999998</v>
       </c>
       <c r="AP6" s="1">
         <v>11.274379</v>
       </c>
       <c r="AQ6" s="1">
-        <v>991.994000</v>
+        <v>991.99400000000003</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.890000</v>
+        <v>-102.89</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>40598.466332</v>
+        <v>40598.466332000004</v>
       </c>
       <c r="AU6" s="1">
         <v>11.277352</v>
       </c>
       <c r="AV6" s="1">
-        <v>1003.470000</v>
+        <v>1003.47</v>
       </c>
       <c r="AW6" s="1">
-        <v>-124.787000</v>
+        <v>-124.78700000000001</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
         <v>40609.524178</v>
       </c>
       <c r="AZ6" s="1">
-        <v>11.280423</v>
+        <v>11.280423000000001</v>
       </c>
       <c r="BA6" s="1">
-        <v>1013.090000</v>
+        <v>1013.09</v>
       </c>
       <c r="BB6" s="1">
-        <v>-143.748000</v>
+        <v>-143.74799999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>40620.903853</v>
+        <v>40620.903853000003</v>
       </c>
       <c r="BE6" s="1">
-        <v>11.283584</v>
+        <v>11.283583999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1058.230000</v>
+        <v>1058.23</v>
       </c>
       <c r="BG6" s="1">
-        <v>-229.704000</v>
+        <v>-229.70400000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>40632.017712</v>
+        <v>40632.017712000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>11.286672</v>
+        <v>11.286671999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1137.720000</v>
+        <v>1137.72</v>
       </c>
       <c r="BL6" s="1">
-        <v>-368.187000</v>
+        <v>-368.18700000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>40643.581440</v>
+        <v>40643.581440000002</v>
       </c>
       <c r="BO6" s="1">
-        <v>11.289884</v>
+        <v>11.289884000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1269.730000</v>
+        <v>1269.73</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-583.068000</v>
+        <v>-583.06799999999998</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>40654.518259</v>
+        <v>40654.518258999997</v>
       </c>
       <c r="BT6" s="1">
-        <v>11.292922</v>
+        <v>11.292922000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1418.540000</v>
+        <v>1418.54</v>
       </c>
       <c r="BV6" s="1">
-        <v>-812.972000</v>
+        <v>-812.97199999999998</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>40665.475842</v>
@@ -1734,195 +2150,195 @@
         <v>11.295966</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1582.570000</v>
+        <v>1582.57</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1054.100000</v>
+        <v>-1054.0999999999999</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>40676.840193</v>
+        <v>40676.840193000004</v>
       </c>
       <c r="CD6" s="1">
-        <v>11.299122</v>
+        <v>11.299122000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>1998.550000</v>
+        <v>1998.55</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1616.710000</v>
+        <v>-1616.71</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>40504.978423</v>
       </c>
       <c r="B7" s="1">
-        <v>11.251383</v>
+        <v>11.251383000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>914.024000</v>
+        <v>914.024</v>
       </c>
       <c r="D7" s="1">
-        <v>-175.323000</v>
+        <v>-175.32300000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>40515.382970</v>
+        <v>40515.382969999999</v>
       </c>
       <c r="G7" s="1">
         <v>11.254273</v>
       </c>
       <c r="H7" s="1">
-        <v>927.377000</v>
+        <v>927.37699999999995</v>
       </c>
       <c r="I7" s="1">
-        <v>-149.492000</v>
+        <v>-149.49199999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>40525.878812</v>
+        <v>40525.878812000003</v>
       </c>
       <c r="L7" s="1">
         <v>11.257189</v>
       </c>
       <c r="M7" s="1">
-        <v>947.358000</v>
+        <v>947.35799999999995</v>
       </c>
       <c r="N7" s="1">
-        <v>-110.624000</v>
+        <v>-110.624</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>40536.081534</v>
+        <v>40536.081533999997</v>
       </c>
       <c r="Q7" s="1">
         <v>11.260023</v>
       </c>
       <c r="R7" s="1">
-        <v>953.789000</v>
+        <v>953.78899999999999</v>
       </c>
       <c r="S7" s="1">
-        <v>-97.616400</v>
+        <v>-97.616399999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>40546.273845</v>
+        <v>40546.273845000003</v>
       </c>
       <c r="V7" s="1">
-        <v>11.262854</v>
+        <v>11.262854000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>960.602000</v>
+        <v>960.60199999999998</v>
       </c>
       <c r="X7" s="1">
-        <v>-86.222800</v>
+        <v>-86.222800000000007</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>40556.428434</v>
+        <v>40556.428434000001</v>
       </c>
       <c r="AA7" s="1">
         <v>11.265675</v>
       </c>
       <c r="AB7" s="1">
-        <v>968.627000</v>
+        <v>968.62699999999995</v>
       </c>
       <c r="AC7" s="1">
-        <v>-78.849000</v>
+        <v>-78.849000000000004</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>40566.642518</v>
+        <v>40566.642518000001</v>
       </c>
       <c r="AF7" s="1">
-        <v>11.268512</v>
+        <v>11.268511999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>974.119000</v>
+        <v>974.11900000000003</v>
       </c>
       <c r="AH7" s="1">
-        <v>-79.241200</v>
+        <v>-79.241200000000006</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>40576.806536</v>
+        <v>40576.806535999996</v>
       </c>
       <c r="AK7" s="1">
-        <v>11.271335</v>
+        <v>11.271335000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>982.608000</v>
+        <v>982.60799999999995</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.637200</v>
+        <v>-87.637200000000007</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>40588.133176</v>
+        <v>40588.133176000003</v>
       </c>
       <c r="AP7" s="1">
         <v>11.274481</v>
       </c>
       <c r="AQ7" s="1">
-        <v>992.026000</v>
+        <v>992.02599999999995</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.881000</v>
+        <v>-102.881</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>40598.833370</v>
+        <v>40598.83337</v>
       </c>
       <c r="AU7" s="1">
-        <v>11.277454</v>
+        <v>11.277454000000001</v>
       </c>
       <c r="AV7" s="1">
-        <v>1003.480000</v>
+        <v>1003.48</v>
       </c>
       <c r="AW7" s="1">
-        <v>-124.789000</v>
+        <v>-124.789</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>40609.884236</v>
+        <v>40609.884235999998</v>
       </c>
       <c r="AZ7" s="1">
-        <v>11.280523</v>
+        <v>11.280523000000001</v>
       </c>
       <c r="BA7" s="1">
-        <v>1013.100000</v>
+        <v>1013.1</v>
       </c>
       <c r="BB7" s="1">
-        <v>-143.733000</v>
+        <v>-143.733</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>40621.581886</v>
@@ -1931,348 +2347,348 @@
         <v>11.283773</v>
       </c>
       <c r="BF7" s="1">
-        <v>1058.250000</v>
+        <v>1058.25</v>
       </c>
       <c r="BG7" s="1">
-        <v>-229.708000</v>
+        <v>-229.708</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>40632.704671</v>
       </c>
       <c r="BJ7" s="1">
-        <v>11.286862</v>
+        <v>11.286861999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1137.700000</v>
+        <v>1137.7</v>
       </c>
       <c r="BL7" s="1">
-        <v>-368.184000</v>
+        <v>-368.18400000000003</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>40643.696016</v>
+        <v>40643.696016000002</v>
       </c>
       <c r="BO7" s="1">
         <v>11.289916</v>
       </c>
       <c r="BP7" s="1">
-        <v>1269.730000</v>
+        <v>1269.73</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-583.106000</v>
+        <v>-583.10599999999999</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>40654.975538</v>
+        <v>40654.975537999999</v>
       </c>
       <c r="BT7" s="1">
         <v>11.293049</v>
       </c>
       <c r="BU7" s="1">
-        <v>1418.580000</v>
+        <v>1418.58</v>
       </c>
       <c r="BV7" s="1">
-        <v>-812.948000</v>
+        <v>-812.94799999999998</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>40665.921778</v>
+        <v>40665.921778000004</v>
       </c>
       <c r="BY7" s="1">
         <v>11.296089</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1582.460000</v>
+        <v>1582.46</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1054.170000</v>
+        <v>-1054.17</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>40677.357012</v>
       </c>
       <c r="CD7" s="1">
-        <v>11.299266</v>
+        <v>11.299265999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>1997.540000</v>
+        <v>1997.54</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1617.800000</v>
+        <v>-1617.8</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>40505.320670</v>
+        <v>40505.320670000001</v>
       </c>
       <c r="B8" s="1">
-        <v>11.251478</v>
+        <v>11.251478000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>914.012000</v>
+        <v>914.01199999999994</v>
       </c>
       <c r="D8" s="1">
-        <v>-175.128000</v>
+        <v>-175.12799999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>40515.725737</v>
+        <v>40515.725737000001</v>
       </c>
       <c r="G8" s="1">
-        <v>11.254368</v>
+        <v>11.254367999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>927.392000</v>
+        <v>927.39200000000005</v>
       </c>
       <c r="I8" s="1">
-        <v>-150.065000</v>
+        <v>-150.065</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>40526.223577</v>
+        <v>40526.223576999997</v>
       </c>
       <c r="L8" s="1">
         <v>11.257284</v>
       </c>
       <c r="M8" s="1">
-        <v>947.380000</v>
+        <v>947.38</v>
       </c>
       <c r="N8" s="1">
-        <v>-110.529000</v>
+        <v>-110.529</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>40536.428749</v>
+        <v>40536.428748999999</v>
       </c>
       <c r="Q8" s="1">
         <v>11.260119</v>
       </c>
       <c r="R8" s="1">
-        <v>953.833000</v>
+        <v>953.83299999999997</v>
       </c>
       <c r="S8" s="1">
-        <v>-97.617900</v>
+        <v>-97.617900000000006</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>40546.962255</v>
+        <v>40546.962254999999</v>
       </c>
       <c r="V8" s="1">
         <v>11.263045</v>
       </c>
       <c r="W8" s="1">
-        <v>960.614000</v>
+        <v>960.61400000000003</v>
       </c>
       <c r="X8" s="1">
-        <v>-86.277400</v>
+        <v>-86.2774</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>40557.126770</v>
+        <v>40557.126770000003</v>
       </c>
       <c r="AA8" s="1">
         <v>11.265869</v>
       </c>
       <c r="AB8" s="1">
-        <v>968.661000</v>
+        <v>968.66099999999994</v>
       </c>
       <c r="AC8" s="1">
-        <v>-78.940800</v>
+        <v>-78.940799999999996</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>40566.988229</v>
+        <v>40566.988229000002</v>
       </c>
       <c r="AF8" s="1">
         <v>11.268608</v>
       </c>
       <c r="AG8" s="1">
-        <v>974.093000</v>
+        <v>974.09299999999996</v>
       </c>
       <c r="AH8" s="1">
-        <v>-79.301400</v>
+        <v>-79.301400000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>40577.157703</v>
+        <v>40577.157702999997</v>
       </c>
       <c r="AK8" s="1">
         <v>11.271433</v>
       </c>
       <c r="AL8" s="1">
-        <v>982.597000</v>
+        <v>982.59699999999998</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.634600</v>
+        <v>-87.634600000000006</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>40588.496746</v>
+        <v>40588.496745999997</v>
       </c>
       <c r="AP8" s="1">
-        <v>11.274582</v>
+        <v>11.274582000000001</v>
       </c>
       <c r="AQ8" s="1">
-        <v>992.006000</v>
+        <v>992.00599999999997</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.869000</v>
+        <v>-102.869</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>40599.499995</v>
+        <v>40599.499994999998</v>
       </c>
       <c r="AU8" s="1">
-        <v>11.277639</v>
+        <v>11.277639000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>1003.450000</v>
+        <v>1003.45</v>
       </c>
       <c r="AW8" s="1">
-        <v>-124.793000</v>
+        <v>-124.79300000000001</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>40610.550890</v>
+        <v>40610.550889999999</v>
       </c>
       <c r="AZ8" s="1">
         <v>11.280709</v>
       </c>
       <c r="BA8" s="1">
-        <v>1013.120000</v>
+        <v>1013.12</v>
       </c>
       <c r="BB8" s="1">
-        <v>-143.755000</v>
+        <v>-143.755</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>40622.016903</v>
+        <v>40622.016903000003</v>
       </c>
       <c r="BE8" s="1">
         <v>11.283894</v>
       </c>
       <c r="BF8" s="1">
-        <v>1058.270000</v>
+        <v>1058.27</v>
       </c>
       <c r="BG8" s="1">
-        <v>-229.691000</v>
+        <v>-229.691</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>40633.173390</v>
+        <v>40633.173390000004</v>
       </c>
       <c r="BJ8" s="1">
-        <v>11.286993</v>
+        <v>11.286993000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1137.700000</v>
+        <v>1137.7</v>
       </c>
       <c r="BL8" s="1">
-        <v>-368.233000</v>
+        <v>-368.233</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>40644.092351</v>
+        <v>40644.092350999999</v>
       </c>
       <c r="BO8" s="1">
-        <v>11.290026</v>
+        <v>11.290025999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1269.700000</v>
+        <v>1269.7</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-583.053000</v>
+        <v>-583.053</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>40655.324721</v>
+        <v>40655.324720999997</v>
       </c>
       <c r="BT8" s="1">
         <v>11.293146</v>
       </c>
       <c r="BU8" s="1">
-        <v>1418.730000</v>
+        <v>1418.73</v>
       </c>
       <c r="BV8" s="1">
-        <v>-812.944000</v>
+        <v>-812.94399999999996</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>40666.355747</v>
+        <v>40666.355747000001</v>
       </c>
       <c r="BY8" s="1">
-        <v>11.296210</v>
+        <v>11.29621</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1582.580000</v>
+        <v>1582.58</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1054.310000</v>
+        <v>-1054.31</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>40677.877314</v>
+        <v>40677.877313999998</v>
       </c>
       <c r="CD8" s="1">
-        <v>11.299410</v>
+        <v>11.29941</v>
       </c>
       <c r="CE8" s="1">
-        <v>1998.550000</v>
+        <v>1998.55</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1618.550000</v>
+        <v>-1618.55</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
         <v>40505.663365</v>
       </c>
@@ -2280,43 +2696,43 @@
         <v>11.251573</v>
       </c>
       <c r="C9" s="1">
-        <v>914.006000</v>
+        <v>914.00599999999997</v>
       </c>
       <c r="D9" s="1">
-        <v>-175.473000</v>
+        <v>-175.47300000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>40516.070920</v>
+        <v>40516.070919999998</v>
       </c>
       <c r="G9" s="1">
         <v>11.254464</v>
       </c>
       <c r="H9" s="1">
-        <v>927.480000</v>
+        <v>927.48</v>
       </c>
       <c r="I9" s="1">
-        <v>-150.148000</v>
+        <v>-150.148</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>40526.913961</v>
+        <v>40526.913960999998</v>
       </c>
       <c r="L9" s="1">
         <v>11.257476</v>
       </c>
       <c r="M9" s="1">
-        <v>947.321000</v>
+        <v>947.32100000000003</v>
       </c>
       <c r="N9" s="1">
-        <v>-110.397000</v>
+        <v>-110.39700000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
         <v>40537.127084</v>
@@ -2325,497 +2741,497 @@
         <v>11.260313</v>
       </c>
       <c r="R9" s="1">
-        <v>953.829000</v>
+        <v>953.82899999999995</v>
       </c>
       <c r="S9" s="1">
-        <v>-97.644000</v>
+        <v>-97.644000000000005</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>40547.309456</v>
+        <v>40547.309456000003</v>
       </c>
       <c r="V9" s="1">
         <v>11.263142</v>
       </c>
       <c r="W9" s="1">
-        <v>960.560000</v>
+        <v>960.56</v>
       </c>
       <c r="X9" s="1">
-        <v>-86.355500</v>
+        <v>-86.355500000000006</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>40557.475953</v>
+        <v>40557.475953000001</v>
       </c>
       <c r="AA9" s="1">
-        <v>11.265966</v>
+        <v>11.265966000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>968.623000</v>
+        <v>968.62300000000005</v>
       </c>
       <c r="AC9" s="1">
-        <v>-79.060000</v>
+        <v>-79.06</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>40567.334955</v>
+        <v>40567.334954999998</v>
       </c>
       <c r="AF9" s="1">
         <v>11.268704</v>
       </c>
       <c r="AG9" s="1">
-        <v>974.111000</v>
+        <v>974.11099999999999</v>
       </c>
       <c r="AH9" s="1">
-        <v>-79.299300</v>
+        <v>-79.299300000000002</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>40577.504442</v>
+        <v>40577.504441999998</v>
       </c>
       <c r="AK9" s="1">
-        <v>11.271529</v>
+        <v>11.271528999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>982.583000</v>
+        <v>982.58299999999997</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.632000</v>
+        <v>-87.632000000000005</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>40589.158903</v>
+        <v>40589.158903000003</v>
       </c>
       <c r="AP9" s="1">
         <v>11.274766</v>
       </c>
       <c r="AQ9" s="1">
-        <v>991.999000</v>
+        <v>991.99900000000002</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.884000</v>
+        <v>-102.884</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>40599.952377</v>
+        <v>40599.952377000001</v>
       </c>
       <c r="AU9" s="1">
         <v>11.277765</v>
       </c>
       <c r="AV9" s="1">
-        <v>1003.480000</v>
+        <v>1003.48</v>
       </c>
       <c r="AW9" s="1">
-        <v>-124.788000</v>
+        <v>-124.788</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>40610.991343</v>
+        <v>40610.991343000002</v>
       </c>
       <c r="AZ9" s="1">
-        <v>11.280831</v>
+        <v>11.280830999999999</v>
       </c>
       <c r="BA9" s="1">
-        <v>1013.090000</v>
+        <v>1013.09</v>
       </c>
       <c r="BB9" s="1">
-        <v>-143.747000</v>
+        <v>-143.74700000000001</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>40622.375980</v>
+        <v>40622.375979999997</v>
       </c>
       <c r="BE9" s="1">
-        <v>11.283993</v>
+        <v>11.283993000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1058.230000</v>
+        <v>1058.23</v>
       </c>
       <c r="BG9" s="1">
-        <v>-229.683000</v>
+        <v>-229.68299999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>40633.563277</v>
+        <v>40633.563277000001</v>
       </c>
       <c r="BJ9" s="1">
         <v>11.287101</v>
       </c>
       <c r="BK9" s="1">
-        <v>1137.710000</v>
+        <v>1137.71</v>
       </c>
       <c r="BL9" s="1">
-        <v>-368.207000</v>
+        <v>-368.20699999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>40644.514910</v>
+        <v>40644.514909999998</v>
       </c>
       <c r="BO9" s="1">
         <v>11.290143</v>
       </c>
       <c r="BP9" s="1">
-        <v>1269.710000</v>
+        <v>1269.71</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-583.068000</v>
+        <v>-583.06799999999998</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>40655.773103</v>
       </c>
       <c r="BT9" s="1">
-        <v>11.293270</v>
+        <v>11.29327</v>
       </c>
       <c r="BU9" s="1">
-        <v>1418.760000</v>
+        <v>1418.76</v>
       </c>
       <c r="BV9" s="1">
-        <v>-812.941000</v>
+        <v>-812.94100000000003</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>40666.770896</v>
+        <v>40666.770896000002</v>
       </c>
       <c r="BY9" s="1">
         <v>11.296325</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1582.560000</v>
+        <v>1582.56</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1054.030000</v>
+        <v>-1054.03</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>40678.394641</v>
+        <v>40678.394640999999</v>
       </c>
       <c r="CD9" s="1">
-        <v>11.299554</v>
+        <v>11.299554000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>1998.430000</v>
+        <v>1998.43</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1618.670000</v>
+        <v>-1618.67</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>40506.347350</v>
+        <v>40506.347349999996</v>
       </c>
       <c r="B10" s="1">
         <v>11.251763</v>
       </c>
       <c r="C10" s="1">
-        <v>914.146000</v>
+        <v>914.14599999999996</v>
       </c>
       <c r="D10" s="1">
-        <v>-175.397000</v>
+        <v>-175.39699999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>40516.761383</v>
+        <v>40516.761382999997</v>
       </c>
       <c r="G10" s="1">
-        <v>11.254656</v>
+        <v>11.254656000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>927.709000</v>
+        <v>927.70899999999995</v>
       </c>
       <c r="I10" s="1">
-        <v>-149.977000</v>
+        <v>-149.977</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>40527.258186</v>
+        <v>40527.258185999999</v>
       </c>
       <c r="L10" s="1">
         <v>11.257572</v>
       </c>
       <c r="M10" s="1">
-        <v>947.595000</v>
+        <v>947.59500000000003</v>
       </c>
       <c r="N10" s="1">
-        <v>-110.229000</v>
+        <v>-110.229</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>40537.477756</v>
       </c>
       <c r="Q10" s="1">
-        <v>11.260410</v>
+        <v>11.26041</v>
       </c>
       <c r="R10" s="1">
-        <v>953.817000</v>
+        <v>953.81700000000001</v>
       </c>
       <c r="S10" s="1">
-        <v>-97.651900</v>
+        <v>-97.651899999999998</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>40547.656160</v>
+        <v>40547.656159999999</v>
       </c>
       <c r="V10" s="1">
-        <v>11.263238</v>
+        <v>11.263237999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>960.596000</v>
+        <v>960.596</v>
       </c>
       <c r="X10" s="1">
-        <v>-86.331400</v>
+        <v>-86.331400000000002</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>40557.822694</v>
+        <v>40557.822694000002</v>
       </c>
       <c r="AA10" s="1">
         <v>11.266062</v>
       </c>
       <c r="AB10" s="1">
-        <v>968.632000</v>
+        <v>968.63199999999995</v>
       </c>
       <c r="AC10" s="1">
-        <v>-78.861500</v>
+        <v>-78.861500000000007</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>40567.993123</v>
       </c>
       <c r="AF10" s="1">
-        <v>11.268887</v>
+        <v>11.268886999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>974.117000</v>
+        <v>974.11699999999996</v>
       </c>
       <c r="AH10" s="1">
-        <v>-79.285600</v>
+        <v>-79.285600000000002</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>40578.155158</v>
+        <v>40578.155158000001</v>
       </c>
       <c r="AK10" s="1">
-        <v>11.271710</v>
+        <v>11.271710000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>982.594000</v>
+        <v>982.59400000000005</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.634600</v>
+        <v>-87.634600000000006</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>40589.606822</v>
+        <v>40589.606822000002</v>
       </c>
       <c r="AP10" s="1">
         <v>11.274891</v>
       </c>
       <c r="AQ10" s="1">
-        <v>992.015000</v>
+        <v>992.01499999999999</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.875000</v>
+        <v>-102.875</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>40600.317400</v>
+        <v>40600.3174</v>
       </c>
       <c r="AU10" s="1">
         <v>11.277866</v>
       </c>
       <c r="AV10" s="1">
-        <v>1003.460000</v>
+        <v>1003.46</v>
       </c>
       <c r="AW10" s="1">
-        <v>-124.801000</v>
+        <v>-124.801</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>40611.349946</v>
+        <v>40611.349946000002</v>
       </c>
       <c r="AZ10" s="1">
-        <v>11.280931</v>
+        <v>11.280931000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1013.110000</v>
+        <v>1013.11</v>
       </c>
       <c r="BB10" s="1">
-        <v>-143.742000</v>
+        <v>-143.74199999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>40622.738555</v>
+        <v>40622.738555000004</v>
       </c>
       <c r="BE10" s="1">
         <v>11.284094</v>
       </c>
       <c r="BF10" s="1">
-        <v>1058.240000</v>
+        <v>1058.24</v>
       </c>
       <c r="BG10" s="1">
-        <v>-229.701000</v>
+        <v>-229.70099999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>40633.938257</v>
+        <v>40633.938257000002</v>
       </c>
       <c r="BJ10" s="1">
         <v>11.287205</v>
       </c>
       <c r="BK10" s="1">
-        <v>1137.690000</v>
+        <v>1137.69</v>
       </c>
       <c r="BL10" s="1">
-        <v>-368.190000</v>
+        <v>-368.19</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>40644.931582</v>
+        <v>40644.931581999997</v>
       </c>
       <c r="BO10" s="1">
-        <v>11.290259</v>
+        <v>11.290259000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1269.680000</v>
+        <v>1269.68</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-583.091000</v>
+        <v>-583.09100000000001</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>40656.163952</v>
+        <v>40656.163952000003</v>
       </c>
       <c r="BT10" s="1">
         <v>11.293379</v>
       </c>
       <c r="BU10" s="1">
-        <v>1418.810000</v>
+        <v>1418.81</v>
       </c>
       <c r="BV10" s="1">
-        <v>-813.023000</v>
+        <v>-813.02300000000002</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>40667.196464</v>
+        <v>40667.196464000001</v>
       </c>
       <c r="BY10" s="1">
         <v>11.296443</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1582.520000</v>
+        <v>1582.52</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1054.040000</v>
+        <v>-1054.04</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>40678.944738</v>
+        <v>40678.944737999998</v>
       </c>
       <c r="CD10" s="1">
         <v>11.299707</v>
       </c>
       <c r="CE10" s="1">
-        <v>1997.610000</v>
+        <v>1997.61</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1618.180000</v>
+        <v>-1618.18</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>40506.689602</v>
+        <v>40506.689601999999</v>
       </c>
       <c r="B11" s="1">
         <v>11.251858</v>
       </c>
       <c r="C11" s="1">
-        <v>913.878000</v>
+        <v>913.87800000000004</v>
       </c>
       <c r="D11" s="1">
-        <v>-175.237000</v>
+        <v>-175.23699999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>40517.106071</v>
+        <v>40517.106071000002</v>
       </c>
       <c r="G11" s="1">
         <v>11.254752</v>
       </c>
       <c r="H11" s="1">
-        <v>927.816000</v>
+        <v>927.81600000000003</v>
       </c>
       <c r="I11" s="1">
-        <v>-149.949000</v>
+        <v>-149.94900000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>40527.606904</v>
@@ -2824,28 +3240,28 @@
         <v>11.257669</v>
       </c>
       <c r="M11" s="1">
-        <v>947.464000</v>
+        <v>947.46400000000006</v>
       </c>
       <c r="N11" s="1">
-        <v>-110.406000</v>
+        <v>-110.40600000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>40537.826444</v>
+        <v>40537.826443999998</v>
       </c>
       <c r="Q11" s="1">
         <v>11.260507</v>
       </c>
       <c r="R11" s="1">
-        <v>953.827000</v>
+        <v>953.827</v>
       </c>
       <c r="S11" s="1">
-        <v>-97.631100</v>
+        <v>-97.631100000000004</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>40548.304957</v>
@@ -2854,88 +3270,88 @@
         <v>11.263418</v>
       </c>
       <c r="W11" s="1">
-        <v>960.547000</v>
+        <v>960.54700000000003</v>
       </c>
       <c r="X11" s="1">
-        <v>-86.330400</v>
+        <v>-86.330399999999997</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>40558.477381</v>
+        <v>40558.477380999997</v>
       </c>
       <c r="AA11" s="1">
         <v>11.266244</v>
       </c>
       <c r="AB11" s="1">
-        <v>968.665000</v>
+        <v>968.66499999999996</v>
       </c>
       <c r="AC11" s="1">
-        <v>-78.916200</v>
+        <v>-78.916200000000003</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>40568.366612</v>
+        <v>40568.366611999998</v>
       </c>
       <c r="AF11" s="1">
         <v>11.268991</v>
       </c>
       <c r="AG11" s="1">
-        <v>974.152000</v>
+        <v>974.15200000000004</v>
       </c>
       <c r="AH11" s="1">
-        <v>-79.265600</v>
+        <v>-79.265600000000006</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>40578.586181</v>
+        <v>40578.586180999999</v>
       </c>
       <c r="AK11" s="1">
         <v>11.271829</v>
       </c>
       <c r="AL11" s="1">
-        <v>982.598000</v>
+        <v>982.59799999999996</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.616000</v>
+        <v>-87.616</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>40589.966390</v>
+        <v>40589.966390000001</v>
       </c>
       <c r="AP11" s="1">
         <v>11.274991</v>
       </c>
       <c r="AQ11" s="1">
-        <v>992.034000</v>
+        <v>992.03399999999999</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.875000</v>
+        <v>-102.875</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>40600.684480</v>
+        <v>40600.684480000004</v>
       </c>
       <c r="AU11" s="1">
         <v>11.277968</v>
       </c>
       <c r="AV11" s="1">
-        <v>1003.460000</v>
+        <v>1003.46</v>
       </c>
       <c r="AW11" s="1">
-        <v>-124.785000</v>
+        <v>-124.785</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>40611.711033</v>
@@ -2944,43 +3360,43 @@
         <v>11.281031</v>
       </c>
       <c r="BA11" s="1">
-        <v>1013.080000</v>
+        <v>1013.08</v>
       </c>
       <c r="BB11" s="1">
-        <v>-143.741000</v>
+        <v>-143.74100000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>40623.163130</v>
+        <v>40623.163130000001</v>
       </c>
       <c r="BE11" s="1">
         <v>11.284212</v>
       </c>
       <c r="BF11" s="1">
-        <v>1058.250000</v>
+        <v>1058.25</v>
       </c>
       <c r="BG11" s="1">
-        <v>-229.700000</v>
+        <v>-229.7</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>40634.352379</v>
+        <v>40634.352379000004</v>
       </c>
       <c r="BJ11" s="1">
-        <v>11.287320</v>
+        <v>11.287319999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1137.700000</v>
+        <v>1137.7</v>
       </c>
       <c r="BL11" s="1">
-        <v>-368.213000</v>
+        <v>-368.21300000000002</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>40645.335326</v>
@@ -2989,739 +3405,739 @@
         <v>11.290371</v>
       </c>
       <c r="BP11" s="1">
-        <v>1269.710000</v>
+        <v>1269.71</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-583.107000</v>
+        <v>-583.10699999999997</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>40656.596462</v>
+        <v>40656.596462000001</v>
       </c>
       <c r="BT11" s="1">
-        <v>11.293499</v>
+        <v>11.293499000000001</v>
       </c>
       <c r="BU11" s="1">
-        <v>1418.910000</v>
+        <v>1418.91</v>
       </c>
       <c r="BV11" s="1">
-        <v>-813.076000</v>
+        <v>-813.07600000000002</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>40667.625008</v>
+        <v>40667.625008000003</v>
       </c>
       <c r="BY11" s="1">
-        <v>11.296563</v>
+        <v>11.296563000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1582.580000</v>
+        <v>1582.58</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1054.140000</v>
+        <v>-1054.1400000000001</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>40679.474929</v>
+        <v>40679.474929000004</v>
       </c>
       <c r="CD11" s="1">
         <v>11.299854</v>
       </c>
       <c r="CE11" s="1">
-        <v>1999.150000</v>
+        <v>1999.15</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1618.600000</v>
+        <v>-1618.6</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>40507.030868</v>
+        <v>40507.030868000002</v>
       </c>
       <c r="B12" s="1">
         <v>11.251953</v>
       </c>
       <c r="C12" s="1">
-        <v>913.814000</v>
+        <v>913.81399999999996</v>
       </c>
       <c r="D12" s="1">
-        <v>-175.327000</v>
+        <v>-175.327</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>40517.453270</v>
+        <v>40517.453269999998</v>
       </c>
       <c r="G12" s="1">
-        <v>11.254848</v>
+        <v>11.254848000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>927.972000</v>
+        <v>927.97199999999998</v>
       </c>
       <c r="I12" s="1">
-        <v>-149.761000</v>
+        <v>-149.761</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>40528.258120</v>
+        <v>40528.258119999999</v>
       </c>
       <c r="L12" s="1">
         <v>11.257849</v>
       </c>
       <c r="M12" s="1">
-        <v>947.448000</v>
+        <v>947.44799999999998</v>
       </c>
       <c r="N12" s="1">
-        <v>-110.444000</v>
+        <v>-110.444</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>40538.488602</v>
+        <v>40538.488601999998</v>
       </c>
       <c r="Q12" s="1">
         <v>11.260691</v>
       </c>
       <c r="R12" s="1">
-        <v>953.803000</v>
+        <v>953.803</v>
       </c>
       <c r="S12" s="1">
-        <v>-97.599600</v>
+        <v>-97.599599999999995</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>40548.684861</v>
+        <v>40548.684861000002</v>
       </c>
       <c r="V12" s="1">
         <v>11.263524</v>
       </c>
       <c r="W12" s="1">
-        <v>960.652000</v>
+        <v>960.65200000000004</v>
       </c>
       <c r="X12" s="1">
-        <v>-86.352100</v>
+        <v>-86.352099999999993</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>40558.866735</v>
+        <v>40558.866735000003</v>
       </c>
       <c r="AA12" s="1">
-        <v>11.266352</v>
+        <v>11.266351999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>968.711000</v>
+        <v>968.71100000000001</v>
       </c>
       <c r="AC12" s="1">
-        <v>-78.912400</v>
+        <v>-78.912400000000005</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>40568.711332</v>
+        <v>40568.711331999999</v>
       </c>
       <c r="AF12" s="1">
         <v>11.269086</v>
       </c>
       <c r="AG12" s="1">
-        <v>974.141000</v>
+        <v>974.14099999999996</v>
       </c>
       <c r="AH12" s="1">
-        <v>-79.270400</v>
+        <v>-79.270399999999995</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>40578.898165</v>
+        <v>40578.898164999999</v>
       </c>
       <c r="AK12" s="1">
-        <v>11.271916</v>
+        <v>11.271915999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>982.578000</v>
+        <v>982.57799999999997</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.621500</v>
+        <v>-87.621499999999997</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>40590.319541</v>
+        <v>40590.319540999997</v>
       </c>
       <c r="AP12" s="1">
-        <v>11.275089</v>
+        <v>11.275088999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>992.038000</v>
+        <v>992.03800000000001</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.892000</v>
+        <v>-102.892</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>40601.110009</v>
+        <v>40601.110009000004</v>
       </c>
       <c r="AU12" s="1">
         <v>11.278086</v>
       </c>
       <c r="AV12" s="1">
-        <v>1003.470000</v>
+        <v>1003.47</v>
       </c>
       <c r="AW12" s="1">
-        <v>-124.785000</v>
+        <v>-124.785</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>40612.138058</v>
+        <v>40612.138057999997</v>
       </c>
       <c r="AZ12" s="1">
-        <v>11.281149</v>
+        <v>11.281148999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1013.100000</v>
+        <v>1013.1</v>
       </c>
       <c r="BB12" s="1">
-        <v>-143.743000</v>
+        <v>-143.74299999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>40623.460243</v>
+        <v>40623.460243000001</v>
       </c>
       <c r="BE12" s="1">
         <v>11.284295</v>
       </c>
       <c r="BF12" s="1">
-        <v>1058.250000</v>
+        <v>1058.25</v>
       </c>
       <c r="BG12" s="1">
-        <v>-229.699000</v>
+        <v>-229.69900000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>40634.691183</v>
+        <v>40634.691183000003</v>
       </c>
       <c r="BJ12" s="1">
         <v>11.287414</v>
       </c>
       <c r="BK12" s="1">
-        <v>1137.680000</v>
+        <v>1137.68</v>
       </c>
       <c r="BL12" s="1">
-        <v>-368.180000</v>
+        <v>-368.18</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>40645.733580</v>
+        <v>40645.73358</v>
       </c>
       <c r="BO12" s="1">
-        <v>11.290482</v>
+        <v>11.290482000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1269.690000</v>
+        <v>1269.69</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-583.102000</v>
+        <v>-583.10199999999998</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>40657.008173</v>
+        <v>40657.008173000002</v>
       </c>
       <c r="BT12" s="1">
-        <v>11.293613</v>
+        <v>11.293613000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>1418.910000</v>
+        <v>1418.91</v>
       </c>
       <c r="BV12" s="1">
-        <v>-813.223000</v>
+        <v>-813.22299999999996</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>40668.040160</v>
+        <v>40668.040159999997</v>
       </c>
       <c r="BY12" s="1">
         <v>11.296678</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1582.510000</v>
+        <v>1582.51</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1054.110000</v>
+        <v>-1054.1099999999999</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>40679.992752</v>
+        <v>40679.992751999998</v>
       </c>
       <c r="CD12" s="1">
         <v>11.299998</v>
       </c>
       <c r="CE12" s="1">
-        <v>1999.270000</v>
+        <v>1999.27</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1617.030000</v>
+        <v>-1617.03</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>40507.678611</v>
+        <v>40507.678611000003</v>
       </c>
       <c r="B13" s="1">
-        <v>11.252133</v>
+        <v>11.252133000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>913.892000</v>
+        <v>913.89200000000005</v>
       </c>
       <c r="D13" s="1">
-        <v>-175.368000</v>
+        <v>-175.36799999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>40518.100549</v>
+        <v>40518.100549000003</v>
       </c>
       <c r="G13" s="1">
-        <v>11.255028</v>
+        <v>11.255027999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>927.739000</v>
+        <v>927.73900000000003</v>
       </c>
       <c r="I13" s="1">
-        <v>-150.091000</v>
+        <v>-150.09100000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>40528.645036</v>
+        <v>40528.645036000002</v>
       </c>
       <c r="L13" s="1">
-        <v>11.257957</v>
+        <v>11.257956999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>947.111000</v>
+        <v>947.11099999999999</v>
       </c>
       <c r="N13" s="1">
-        <v>-110.025000</v>
+        <v>-110.02500000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>40538.872010</v>
+        <v>40538.872009999999</v>
       </c>
       <c r="Q13" s="1">
-        <v>11.260798</v>
+        <v>11.260797999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>953.840000</v>
+        <v>953.84</v>
       </c>
       <c r="S13" s="1">
-        <v>-97.649900</v>
+        <v>-97.649900000000002</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>40549.028093</v>
+        <v>40549.028093000001</v>
       </c>
       <c r="V13" s="1">
         <v>11.263619</v>
       </c>
       <c r="W13" s="1">
-        <v>960.580000</v>
+        <v>960.58</v>
       </c>
       <c r="X13" s="1">
-        <v>-86.271500</v>
+        <v>-86.271500000000003</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>40559.218399</v>
+        <v>40559.218398999998</v>
       </c>
       <c r="AA13" s="1">
-        <v>11.266450</v>
+        <v>11.266450000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>968.574000</v>
+        <v>968.57399999999996</v>
       </c>
       <c r="AC13" s="1">
-        <v>-78.886300</v>
+        <v>-78.886300000000006</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>40569.053570</v>
+        <v>40569.053569999996</v>
       </c>
       <c r="AF13" s="1">
-        <v>11.269182</v>
+        <v>11.269182000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>974.119000</v>
+        <v>974.11900000000003</v>
       </c>
       <c r="AH13" s="1">
-        <v>-79.245400</v>
+        <v>-79.245400000000004</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>40579.593113</v>
+        <v>40579.593113000003</v>
       </c>
       <c r="AK13" s="1">
         <v>11.272109</v>
       </c>
       <c r="AL13" s="1">
-        <v>982.598000</v>
+        <v>982.59799999999996</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.607500</v>
+        <v>-87.607500000000002</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>40590.753045</v>
+        <v>40590.753044999998</v>
       </c>
       <c r="AP13" s="1">
         <v>11.275209</v>
       </c>
       <c r="AQ13" s="1">
-        <v>992.013000</v>
+        <v>992.01300000000003</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.863000</v>
+        <v>-102.863</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>40601.411576</v>
+        <v>40601.411575999999</v>
       </c>
       <c r="AU13" s="1">
-        <v>11.278170</v>
+        <v>11.278169999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>1003.460000</v>
+        <v>1003.46</v>
       </c>
       <c r="AW13" s="1">
-        <v>-124.801000</v>
+        <v>-124.801</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>40612.428714</v>
+        <v>40612.428714000001</v>
       </c>
       <c r="AZ13" s="1">
-        <v>11.281230</v>
+        <v>11.281230000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1013.090000</v>
+        <v>1013.09</v>
       </c>
       <c r="BB13" s="1">
-        <v>-143.742000</v>
+        <v>-143.74199999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>40623.819338</v>
+        <v>40623.819338000001</v>
       </c>
       <c r="BE13" s="1">
-        <v>11.284394</v>
+        <v>11.284394000000001</v>
       </c>
       <c r="BF13" s="1">
-        <v>1058.240000</v>
+        <v>1058.24</v>
       </c>
       <c r="BG13" s="1">
-        <v>-229.701000</v>
+        <v>-229.70099999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>40635.100874</v>
+        <v>40635.100874000003</v>
       </c>
       <c r="BJ13" s="1">
         <v>11.287528</v>
       </c>
       <c r="BK13" s="1">
-        <v>1137.680000</v>
+        <v>1137.68</v>
       </c>
       <c r="BL13" s="1">
-        <v>-368.184000</v>
+        <v>-368.18400000000003</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>40646.152240</v>
+        <v>40646.152240000003</v>
       </c>
       <c r="BO13" s="1">
-        <v>11.290598</v>
+        <v>11.290597999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1269.690000</v>
+        <v>1269.69</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-583.095000</v>
+        <v>-583.09500000000003</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>40657.437705</v>
+        <v>40657.437704999997</v>
       </c>
       <c r="BT13" s="1">
         <v>11.293733</v>
       </c>
       <c r="BU13" s="1">
-        <v>1418.960000</v>
+        <v>1418.96</v>
       </c>
       <c r="BV13" s="1">
-        <v>-813.222000</v>
+        <v>-813.22199999999998</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>40668.495984</v>
+        <v>40668.495984000001</v>
       </c>
       <c r="BY13" s="1">
         <v>11.296804</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1582.480000</v>
+        <v>1582.48</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1054.130000</v>
+        <v>-1054.1300000000001</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>40680.512560</v>
+        <v>40680.512560000003</v>
       </c>
       <c r="CD13" s="1">
-        <v>11.300142</v>
+        <v>11.300141999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>1997.800000</v>
+        <v>1997.8</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1617.130000</v>
+        <v>-1617.13</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>40508.054082</v>
+        <v>40508.054082000002</v>
       </c>
       <c r="B14" s="1">
-        <v>11.252237</v>
+        <v>11.252236999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>914.003000</v>
+        <v>914.00300000000004</v>
       </c>
       <c r="D14" s="1">
-        <v>-175.394000</v>
+        <v>-175.39400000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>40518.484454</v>
+        <v>40518.484453999998</v>
       </c>
       <c r="G14" s="1">
-        <v>11.255135</v>
+        <v>11.255134999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>927.769000</v>
+        <v>927.76900000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>-149.919000</v>
+        <v>-149.91900000000001</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>40528.987600</v>
+        <v>40528.9876</v>
       </c>
       <c r="L14" s="1">
-        <v>11.258052</v>
+        <v>11.258051999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>947.514000</v>
+        <v>947.51400000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-110.343000</v>
+        <v>-110.343</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>40539.219961</v>
+        <v>40539.219961000003</v>
       </c>
       <c r="Q14" s="1">
         <v>11.260894</v>
       </c>
       <c r="R14" s="1">
-        <v>953.844000</v>
+        <v>953.84400000000005</v>
       </c>
       <c r="S14" s="1">
-        <v>-97.648500</v>
+        <v>-97.648499999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>40549.371851</v>
+        <v>40549.371851000004</v>
       </c>
       <c r="V14" s="1">
         <v>11.263714</v>
       </c>
       <c r="W14" s="1">
-        <v>960.615000</v>
+        <v>960.61500000000001</v>
       </c>
       <c r="X14" s="1">
-        <v>-86.323200</v>
+        <v>-86.3232</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>40559.562126</v>
+        <v>40559.562125999997</v>
       </c>
       <c r="AA14" s="1">
-        <v>11.266545</v>
+        <v>11.266545000000001</v>
       </c>
       <c r="AB14" s="1">
-        <v>968.689000</v>
+        <v>968.68899999999996</v>
       </c>
       <c r="AC14" s="1">
-        <v>-78.883000</v>
+        <v>-78.882999999999996</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>40569.469218</v>
+        <v>40569.469217999998</v>
       </c>
       <c r="AF14" s="1">
         <v>11.269297</v>
       </c>
       <c r="AG14" s="1">
-        <v>974.139000</v>
+        <v>974.13900000000001</v>
       </c>
       <c r="AH14" s="1">
-        <v>-79.271400</v>
+        <v>-79.2714</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>40580.289953</v>
       </c>
       <c r="AK14" s="1">
-        <v>11.272303</v>
+        <v>11.272303000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>982.563000</v>
+        <v>982.56299999999999</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.649600</v>
+        <v>-87.649600000000007</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>40591.047173</v>
+        <v>40591.047172999999</v>
       </c>
       <c r="AP14" s="1">
-        <v>11.275291</v>
+        <v>11.275290999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>991.986000</v>
+        <v>991.98599999999999</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.891000</v>
+        <v>-102.89100000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>40601.774678</v>
+        <v>40601.774678000002</v>
       </c>
       <c r="AU14" s="1">
         <v>11.278271</v>
       </c>
       <c r="AV14" s="1">
-        <v>1003.460000</v>
+        <v>1003.46</v>
       </c>
       <c r="AW14" s="1">
-        <v>-124.783000</v>
+        <v>-124.783</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>40612.785832</v>
+        <v>40612.785832000001</v>
       </c>
       <c r="AZ14" s="1">
-        <v>11.281329</v>
+        <v>11.281328999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1013.090000</v>
+        <v>1013.09</v>
       </c>
       <c r="BB14" s="1">
-        <v>-143.753000</v>
+        <v>-143.75299999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>40624.180923</v>
@@ -3730,13 +4146,13 @@
         <v>11.284495</v>
       </c>
       <c r="BF14" s="1">
-        <v>1058.250000</v>
+        <v>1058.25</v>
       </c>
       <c r="BG14" s="1">
-        <v>-229.707000</v>
+        <v>-229.70699999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>40635.922713</v>
@@ -3745,347 +4161,347 @@
         <v>11.287756</v>
       </c>
       <c r="BK14" s="1">
-        <v>1137.690000</v>
+        <v>1137.69</v>
       </c>
       <c r="BL14" s="1">
-        <v>-368.199000</v>
+        <v>-368.19900000000001</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>40646.564877</v>
+        <v>40646.564876999997</v>
       </c>
       <c r="BO14" s="1">
-        <v>11.290712</v>
+        <v>11.290711999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1269.710000</v>
+        <v>1269.71</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-583.118000</v>
+        <v>-583.11800000000005</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>40657.866222</v>
+        <v>40657.866221999997</v>
       </c>
       <c r="BT14" s="1">
-        <v>11.293852</v>
+        <v>11.293851999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1419.020000</v>
+        <v>1419.02</v>
       </c>
       <c r="BV14" s="1">
-        <v>-813.265000</v>
+        <v>-813.26499999999999</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>40668.944861</v>
+        <v>40668.944861000004</v>
       </c>
       <c r="BY14" s="1">
         <v>11.296929</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1582.440000</v>
+        <v>1582.44</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1054.180000</v>
+        <v>-1054.18</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>40681.029886</v>
+        <v>40681.029885999997</v>
       </c>
       <c r="CD14" s="1">
         <v>11.300286</v>
       </c>
       <c r="CE14" s="1">
-        <v>1998.120000</v>
+        <v>1998.12</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1616.710000</v>
+        <v>-1616.71</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>40508.397314</v>
+        <v>40508.397314000002</v>
       </c>
       <c r="B15" s="1">
         <v>11.252333</v>
       </c>
       <c r="C15" s="1">
-        <v>913.847000</v>
+        <v>913.84699999999998</v>
       </c>
       <c r="D15" s="1">
-        <v>-175.214000</v>
+        <v>-175.214</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>40518.830692</v>
+        <v>40518.830692000003</v>
       </c>
       <c r="G15" s="1">
         <v>11.255231</v>
       </c>
       <c r="H15" s="1">
-        <v>927.801000</v>
+        <v>927.80100000000004</v>
       </c>
       <c r="I15" s="1">
-        <v>-150.000000</v>
+        <v>-150</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>40529.333979</v>
+        <v>40529.333979000003</v>
       </c>
       <c r="L15" s="1">
         <v>11.258148</v>
       </c>
       <c r="M15" s="1">
-        <v>947.164000</v>
+        <v>947.16399999999999</v>
       </c>
       <c r="N15" s="1">
-        <v>-110.323000</v>
+        <v>-110.32299999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>40539.567439</v>
+        <v>40539.567438999999</v>
       </c>
       <c r="Q15" s="1">
-        <v>11.260991</v>
+        <v>11.260991000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>953.811000</v>
+        <v>953.81100000000004</v>
       </c>
       <c r="S15" s="1">
-        <v>-97.675100</v>
+        <v>-97.6751</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>40549.795404</v>
+        <v>40549.795403999997</v>
       </c>
       <c r="V15" s="1">
-        <v>11.263832</v>
+        <v>11.263832000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>960.604000</v>
+        <v>960.60400000000004</v>
       </c>
       <c r="X15" s="1">
-        <v>-86.347800</v>
+        <v>-86.347800000000007</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>40560.040302</v>
+        <v>40560.040302000001</v>
       </c>
       <c r="AA15" s="1">
-        <v>11.266678</v>
+        <v>11.266678000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>968.535000</v>
+        <v>968.53499999999997</v>
       </c>
       <c r="AC15" s="1">
-        <v>-78.891500</v>
+        <v>-78.891499999999994</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>40569.749457</v>
+        <v>40569.749456999998</v>
       </c>
       <c r="AF15" s="1">
         <v>11.269375</v>
       </c>
       <c r="AG15" s="1">
-        <v>974.164000</v>
+        <v>974.16399999999999</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.284300</v>
+        <v>-79.284300000000002</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>40580.639651</v>
+        <v>40580.639650999998</v>
       </c>
       <c r="AK15" s="1">
-        <v>11.272400</v>
+        <v>11.272399999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>982.579000</v>
+        <v>982.57899999999995</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.640000</v>
+        <v>-87.64</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>40591.407766</v>
+        <v>40591.407765999997</v>
       </c>
       <c r="AP15" s="1">
-        <v>11.275391</v>
+        <v>11.275391000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>991.991000</v>
+        <v>991.99099999999999</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.878000</v>
+        <v>-102.878</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>40602.141190</v>
+        <v>40602.141190000002</v>
       </c>
       <c r="AU15" s="1">
         <v>11.278373</v>
       </c>
       <c r="AV15" s="1">
-        <v>1003.470000</v>
+        <v>1003.47</v>
       </c>
       <c r="AW15" s="1">
-        <v>-124.811000</v>
+        <v>-124.81100000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>40613.143945</v>
+        <v>40613.143945000003</v>
       </c>
       <c r="AZ15" s="1">
-        <v>11.281429</v>
+        <v>11.281428999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1013.090000</v>
+        <v>1013.09</v>
       </c>
       <c r="BB15" s="1">
-        <v>-143.739000</v>
+        <v>-143.739</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>40624.903622</v>
+        <v>40624.903621999998</v>
       </c>
       <c r="BE15" s="1">
-        <v>11.284695</v>
+        <v>11.284694999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1058.270000</v>
+        <v>1058.27</v>
       </c>
       <c r="BG15" s="1">
-        <v>-229.696000</v>
+        <v>-229.696</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>40636.210394</v>
+        <v>40636.210394000002</v>
       </c>
       <c r="BJ15" s="1">
         <v>11.287836</v>
       </c>
       <c r="BK15" s="1">
-        <v>1137.660000</v>
+        <v>1137.6600000000001</v>
       </c>
       <c r="BL15" s="1">
-        <v>-368.179000</v>
+        <v>-368.17899999999997</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>40646.973579</v>
+        <v>40646.973578999998</v>
       </c>
       <c r="BO15" s="1">
-        <v>11.290826</v>
+        <v>11.290825999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1269.690000</v>
+        <v>1269.69</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-583.103000</v>
+        <v>-583.10299999999995</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>40658.279884</v>
+        <v>40658.279884000003</v>
       </c>
       <c r="BT15" s="1">
         <v>11.293967</v>
       </c>
       <c r="BU15" s="1">
-        <v>1419.010000</v>
+        <v>1419.01</v>
       </c>
       <c r="BV15" s="1">
-        <v>-813.330000</v>
+        <v>-813.33</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>40669.368477</v>
+        <v>40669.368477000004</v>
       </c>
       <c r="BY15" s="1">
-        <v>11.297047</v>
+        <v>11.297046999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1582.640000</v>
+        <v>1582.64</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1054.180000</v>
+        <v>-1054.18</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>40681.894414</v>
+        <v>40681.894414000002</v>
       </c>
       <c r="CD15" s="1">
         <v>11.300526</v>
       </c>
       <c r="CE15" s="1">
-        <v>1998.940000</v>
+        <v>1998.94</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1617.250000</v>
+        <v>-1617.25</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>40508.741041</v>
+        <v>40508.741041000001</v>
       </c>
       <c r="B16" s="1">
         <v>11.252428</v>
       </c>
       <c r="C16" s="1">
-        <v>913.953000</v>
+        <v>913.95299999999997</v>
       </c>
       <c r="D16" s="1">
-        <v>-175.169000</v>
+        <v>-175.16900000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>40519.174884</v>
@@ -4094,572 +4510,572 @@
         <v>11.255326</v>
       </c>
       <c r="H16" s="1">
-        <v>928.074000</v>
+        <v>928.07399999999996</v>
       </c>
       <c r="I16" s="1">
-        <v>-150.114000</v>
+        <v>-150.114</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>40529.749590</v>
+        <v>40529.749589999999</v>
       </c>
       <c r="L16" s="1">
         <v>11.258264</v>
       </c>
       <c r="M16" s="1">
-        <v>947.346000</v>
+        <v>947.346</v>
       </c>
       <c r="N16" s="1">
-        <v>-110.417000</v>
+        <v>-110.417</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>40540.079272</v>
+        <v>40540.079272000003</v>
       </c>
       <c r="Q16" s="1">
-        <v>11.261133</v>
+        <v>11.261132999999999</v>
       </c>
       <c r="R16" s="1">
-        <v>953.795000</v>
+        <v>953.79499999999996</v>
       </c>
       <c r="S16" s="1">
-        <v>-97.622500</v>
+        <v>-97.622500000000002</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>40550.067745</v>
       </c>
       <c r="V16" s="1">
-        <v>11.263908</v>
+        <v>11.263908000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>960.570000</v>
+        <v>960.57</v>
       </c>
       <c r="X16" s="1">
-        <v>-86.353400</v>
+        <v>-86.353399999999993</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>40560.274879</v>
+        <v>40560.274878999997</v>
       </c>
       <c r="AA16" s="1">
         <v>11.266743</v>
       </c>
       <c r="AB16" s="1">
-        <v>968.674000</v>
+        <v>968.67399999999998</v>
       </c>
       <c r="AC16" s="1">
-        <v>-78.867200</v>
+        <v>-78.867199999999997</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>40570.091728</v>
+        <v>40570.091727999999</v>
       </c>
       <c r="AF16" s="1">
-        <v>11.269470</v>
+        <v>11.26947</v>
       </c>
       <c r="AG16" s="1">
-        <v>974.127000</v>
+        <v>974.12699999999995</v>
       </c>
       <c r="AH16" s="1">
-        <v>-79.249600</v>
+        <v>-79.249600000000001</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>40580.986819</v>
+        <v>40580.986818999998</v>
       </c>
       <c r="AK16" s="1">
         <v>11.272496</v>
       </c>
       <c r="AL16" s="1">
-        <v>982.588000</v>
+        <v>982.58799999999997</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.650700</v>
+        <v>-87.650700000000001</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>40591.765885</v>
+        <v>40591.765885000001</v>
       </c>
       <c r="AP16" s="1">
-        <v>11.275491</v>
+        <v>11.275491000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>991.986000</v>
+        <v>991.98599999999999</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.870000</v>
+        <v>-102.87</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>40602.877783</v>
+        <v>40602.877783000004</v>
       </c>
       <c r="AU16" s="1">
         <v>11.278577</v>
       </c>
       <c r="AV16" s="1">
-        <v>1003.470000</v>
+        <v>1003.47</v>
       </c>
       <c r="AW16" s="1">
-        <v>-124.792000</v>
+        <v>-124.792</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>40613.861655</v>
+        <v>40613.861655000001</v>
       </c>
       <c r="AZ16" s="1">
         <v>11.281628</v>
       </c>
       <c r="BA16" s="1">
-        <v>1013.100000</v>
+        <v>1013.1</v>
       </c>
       <c r="BB16" s="1">
-        <v>-143.743000</v>
+        <v>-143.74299999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>40625.289479</v>
+        <v>40625.289478999999</v>
       </c>
       <c r="BE16" s="1">
         <v>11.284803</v>
       </c>
       <c r="BF16" s="1">
-        <v>1058.240000</v>
+        <v>1058.24</v>
       </c>
       <c r="BG16" s="1">
-        <v>-229.699000</v>
+        <v>-229.69900000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>40636.585896</v>
+        <v>40636.585895999997</v>
       </c>
       <c r="BJ16" s="1">
         <v>11.287941</v>
       </c>
       <c r="BK16" s="1">
-        <v>1137.710000</v>
+        <v>1137.71</v>
       </c>
       <c r="BL16" s="1">
-        <v>-368.199000</v>
+        <v>-368.19900000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>40647.368926</v>
+        <v>40647.368926000003</v>
       </c>
       <c r="BO16" s="1">
         <v>11.290936</v>
       </c>
       <c r="BP16" s="1">
-        <v>1269.660000</v>
+        <v>1269.6600000000001</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-583.095000</v>
+        <v>-583.09500000000003</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>40659.006027</v>
+        <v>40659.006027000003</v>
       </c>
       <c r="BT16" s="1">
-        <v>11.294168</v>
+        <v>11.294168000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1419.000000</v>
+        <v>1419</v>
       </c>
       <c r="BV16" s="1">
-        <v>-813.468000</v>
+        <v>-813.46799999999996</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>40670.095587</v>
+        <v>40670.095587000003</v>
       </c>
       <c r="BY16" s="1">
-        <v>11.297249</v>
+        <v>11.297249000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1582.550000</v>
+        <v>1582.55</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1054.200000</v>
+        <v>-1054.2</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>40682.108226</v>
+        <v>40682.108225999997</v>
       </c>
       <c r="CD16" s="1">
-        <v>11.300586</v>
+        <v>11.300585999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>1997.520000</v>
+        <v>1997.52</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1617.690000</v>
+        <v>-1617.69</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>40509.168097</v>
+        <v>40509.168097000002</v>
       </c>
       <c r="B17" s="1">
         <v>11.252547</v>
       </c>
       <c r="C17" s="1">
-        <v>913.885000</v>
+        <v>913.88499999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-175.488000</v>
+        <v>-175.488</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>40519.593012</v>
+        <v>40519.593011999998</v>
       </c>
       <c r="G17" s="1">
         <v>11.255443</v>
       </c>
       <c r="H17" s="1">
-        <v>927.845000</v>
+        <v>927.84500000000003</v>
       </c>
       <c r="I17" s="1">
-        <v>-150.464000</v>
+        <v>-150.464</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>40530.047685</v>
+        <v>40530.047684999998</v>
       </c>
       <c r="L17" s="1">
-        <v>11.258347</v>
+        <v>11.258347000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>947.330000</v>
+        <v>947.33</v>
       </c>
       <c r="N17" s="1">
-        <v>-110.466000</v>
+        <v>-110.46599999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>40540.264298</v>
+        <v>40540.264298000002</v>
       </c>
       <c r="Q17" s="1">
-        <v>11.261185</v>
+        <v>11.261184999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>953.772000</v>
+        <v>953.77200000000005</v>
       </c>
       <c r="S17" s="1">
-        <v>-97.646300</v>
+        <v>-97.646299999999997</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>40550.410938</v>
+        <v>40550.410938000001</v>
       </c>
       <c r="V17" s="1">
-        <v>11.264003</v>
+        <v>11.264003000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>960.612000</v>
+        <v>960.61199999999997</v>
       </c>
       <c r="X17" s="1">
-        <v>-86.335700</v>
+        <v>-86.335700000000003</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>40560.625549</v>
+        <v>40560.625548999997</v>
       </c>
       <c r="AA17" s="1">
-        <v>11.266840</v>
+        <v>11.26684</v>
       </c>
       <c r="AB17" s="1">
-        <v>968.626000</v>
+        <v>968.62599999999998</v>
       </c>
       <c r="AC17" s="1">
-        <v>-78.852800</v>
+        <v>-78.852800000000002</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>40570.435424</v>
+        <v>40570.435424000003</v>
       </c>
       <c r="AF17" s="1">
         <v>11.269565</v>
       </c>
       <c r="AG17" s="1">
-        <v>974.138000</v>
+        <v>974.13800000000003</v>
       </c>
       <c r="AH17" s="1">
-        <v>-79.259300</v>
+        <v>-79.259299999999996</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>40581.686673</v>
+        <v>40581.686672999997</v>
       </c>
       <c r="AK17" s="1">
         <v>11.272691</v>
       </c>
       <c r="AL17" s="1">
-        <v>982.578000</v>
+        <v>982.57799999999997</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.619900</v>
+        <v>-87.619900000000001</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>40592.497475</v>
+        <v>40592.497474999996</v>
       </c>
       <c r="AP17" s="1">
         <v>11.275694</v>
       </c>
       <c r="AQ17" s="1">
-        <v>991.955000</v>
+        <v>991.95500000000004</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.920000</v>
+        <v>-102.92</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>40603.257718</v>
+        <v>40603.257718000001</v>
       </c>
       <c r="AU17" s="1">
-        <v>11.278683</v>
+        <v>11.278682999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>1003.460000</v>
+        <v>1003.46</v>
       </c>
       <c r="AW17" s="1">
-        <v>-124.793000</v>
+        <v>-124.79300000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>40614.222744</v>
+        <v>40614.222743999999</v>
       </c>
       <c r="AZ17" s="1">
         <v>11.281729</v>
       </c>
       <c r="BA17" s="1">
-        <v>1013.080000</v>
+        <v>1013.08</v>
       </c>
       <c r="BB17" s="1">
-        <v>-143.745000</v>
+        <v>-143.745</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>40625.653083</v>
+        <v>40625.653082999997</v>
       </c>
       <c r="BE17" s="1">
-        <v>11.284904</v>
+        <v>11.284903999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1058.230000</v>
+        <v>1058.23</v>
       </c>
       <c r="BG17" s="1">
-        <v>-229.684000</v>
+        <v>-229.684</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>40637.288231</v>
+        <v>40637.288230999999</v>
       </c>
       <c r="BJ17" s="1">
         <v>11.288136</v>
       </c>
       <c r="BK17" s="1">
-        <v>1137.670000</v>
+        <v>1137.67</v>
       </c>
       <c r="BL17" s="1">
-        <v>-368.232000</v>
+        <v>-368.23200000000003</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>40648.098537</v>
+        <v>40648.098536999998</v>
       </c>
       <c r="BO17" s="1">
         <v>11.291138</v>
       </c>
       <c r="BP17" s="1">
-        <v>1269.720000</v>
+        <v>1269.72</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-583.074000</v>
+        <v>-583.07399999999996</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>40659.133034</v>
+        <v>40659.133033999999</v>
       </c>
       <c r="BT17" s="1">
-        <v>11.294204</v>
+        <v>11.294204000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>1418.990000</v>
+        <v>1418.99</v>
       </c>
       <c r="BV17" s="1">
-        <v>-813.511000</v>
+        <v>-813.51099999999997</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>40670.212672</v>
+        <v>40670.212672000001</v>
       </c>
       <c r="BY17" s="1">
         <v>11.297281</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1582.580000</v>
+        <v>1582.58</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1054.160000</v>
+        <v>-1054.1600000000001</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>40682.629015</v>
+        <v>40682.629014999999</v>
       </c>
       <c r="CD17" s="1">
-        <v>11.300730</v>
+        <v>11.30073</v>
       </c>
       <c r="CE17" s="1">
-        <v>1999.140000</v>
+        <v>1999.14</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1618.510000</v>
+        <v>-1618.51</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>40509.441423</v>
+        <v>40509.441422999997</v>
       </c>
       <c r="B18" s="1">
         <v>11.252623</v>
       </c>
       <c r="C18" s="1">
-        <v>913.852000</v>
+        <v>913.85199999999998</v>
       </c>
       <c r="D18" s="1">
-        <v>-175.274000</v>
+        <v>-175.274</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>40519.868787</v>
+        <v>40519.868786999999</v>
       </c>
       <c r="G18" s="1">
         <v>11.255519</v>
       </c>
       <c r="H18" s="1">
-        <v>927.968000</v>
+        <v>927.96799999999996</v>
       </c>
       <c r="I18" s="1">
-        <v>-149.593000</v>
+        <v>-149.59299999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>40530.391413</v>
+        <v>40530.391412999998</v>
       </c>
       <c r="L18" s="1">
-        <v>11.258442</v>
+        <v>11.258442000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>947.464000</v>
+        <v>947.46400000000006</v>
       </c>
       <c r="N18" s="1">
-        <v>-110.339000</v>
+        <v>-110.339</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>40540.613463</v>
+        <v>40540.613463000002</v>
       </c>
       <c r="Q18" s="1">
         <v>11.261282</v>
       </c>
       <c r="R18" s="1">
-        <v>953.824000</v>
+        <v>953.82399999999996</v>
       </c>
       <c r="S18" s="1">
-        <v>-97.610800</v>
+        <v>-97.610799999999998</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>40550.754170</v>
+        <v>40550.75417</v>
       </c>
       <c r="V18" s="1">
-        <v>11.264098</v>
+        <v>11.264098000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>960.615000</v>
+        <v>960.61500000000001</v>
       </c>
       <c r="X18" s="1">
-        <v>-86.306800</v>
+        <v>-86.306799999999996</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>40561.109182</v>
@@ -4668,58 +5084,58 @@
         <v>11.266975</v>
       </c>
       <c r="AB18" s="1">
-        <v>968.680000</v>
+        <v>968.68</v>
       </c>
       <c r="AC18" s="1">
-        <v>-78.807500</v>
+        <v>-78.807500000000005</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>40571.122910</v>
+        <v>40571.122909999998</v>
       </c>
       <c r="AF18" s="1">
-        <v>11.269756</v>
+        <v>11.269755999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>974.139000</v>
+        <v>974.13900000000001</v>
       </c>
       <c r="AH18" s="1">
-        <v>-79.302400</v>
+        <v>-79.302400000000006</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>40582.035888</v>
+        <v>40582.035887999999</v>
       </c>
       <c r="AK18" s="1">
         <v>11.272788</v>
       </c>
       <c r="AL18" s="1">
-        <v>982.586000</v>
+        <v>982.58600000000001</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.631200</v>
+        <v>-87.631200000000007</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>40592.873939</v>
+        <v>40592.873938999997</v>
       </c>
       <c r="AP18" s="1">
         <v>11.275798</v>
       </c>
       <c r="AQ18" s="1">
-        <v>991.920000</v>
+        <v>991.92</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.928000</v>
+        <v>-102.928</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>40603.623237</v>
@@ -4728,43 +5144,43 @@
         <v>11.278784</v>
       </c>
       <c r="AV18" s="1">
-        <v>1003.480000</v>
+        <v>1003.48</v>
       </c>
       <c r="AW18" s="1">
-        <v>-124.782000</v>
+        <v>-124.782</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>40614.581847</v>
+        <v>40614.581847000001</v>
       </c>
       <c r="AZ18" s="1">
-        <v>11.281828</v>
+        <v>11.281828000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1013.100000</v>
+        <v>1013.1</v>
       </c>
       <c r="BB18" s="1">
-        <v>-143.732000</v>
+        <v>-143.732</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>40626.319175</v>
+        <v>40626.319174999997</v>
       </c>
       <c r="BE18" s="1">
-        <v>11.285089</v>
+        <v>11.285088999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1058.240000</v>
+        <v>1058.24</v>
       </c>
       <c r="BG18" s="1">
-        <v>-229.688000</v>
+        <v>-229.68799999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>40637.738072</v>
@@ -4773,58 +5189,58 @@
         <v>11.288261</v>
       </c>
       <c r="BK18" s="1">
-        <v>1137.680000</v>
+        <v>1137.68</v>
       </c>
       <c r="BL18" s="1">
-        <v>-368.211000</v>
+        <v>-368.21100000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>40648.210160</v>
+        <v>40648.210160000002</v>
       </c>
       <c r="BO18" s="1">
         <v>11.291169</v>
       </c>
       <c r="BP18" s="1">
-        <v>1269.680000</v>
+        <v>1269.68</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-583.100000</v>
+        <v>-583.1</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>40659.548652</v>
+        <v>40659.548651999998</v>
       </c>
       <c r="BT18" s="1">
         <v>11.294319</v>
       </c>
       <c r="BU18" s="1">
-        <v>1418.920000</v>
+        <v>1418.92</v>
       </c>
       <c r="BV18" s="1">
-        <v>-813.591000</v>
+        <v>-813.59100000000001</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>40670.663003</v>
+        <v>40670.663003000001</v>
       </c>
       <c r="BY18" s="1">
-        <v>11.297406</v>
+        <v>11.297406000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1582.530000</v>
+        <v>1582.53</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1053.980000</v>
+        <v>-1053.98</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
         <v>40683.163707</v>
@@ -4833,240 +5249,240 @@
         <v>11.300879</v>
       </c>
       <c r="CE18" s="1">
-        <v>1998.240000</v>
+        <v>1998.24</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1616.680000</v>
+        <v>-1616.68</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>40509.782641</v>
+        <v>40509.782640999998</v>
       </c>
       <c r="B19" s="1">
-        <v>11.252717</v>
+        <v>11.252717000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>914.094000</v>
+        <v>914.09400000000005</v>
       </c>
       <c r="D19" s="1">
-        <v>-175.498000</v>
+        <v>-175.49799999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>40520.216483</v>
+        <v>40520.216482999997</v>
       </c>
       <c r="G19" s="1">
         <v>11.255616</v>
       </c>
       <c r="H19" s="1">
-        <v>927.760000</v>
+        <v>927.76</v>
       </c>
       <c r="I19" s="1">
-        <v>-149.937000</v>
+        <v>-149.93700000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>40530.737620</v>
+        <v>40530.73762</v>
       </c>
       <c r="L19" s="1">
         <v>11.258538</v>
       </c>
       <c r="M19" s="1">
-        <v>947.163000</v>
+        <v>947.16300000000001</v>
       </c>
       <c r="N19" s="1">
-        <v>-110.491000</v>
+        <v>-110.491</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>40541.311831</v>
+        <v>40541.311830999999</v>
       </c>
       <c r="Q19" s="1">
         <v>11.261476</v>
       </c>
       <c r="R19" s="1">
-        <v>953.848000</v>
+        <v>953.84799999999996</v>
       </c>
       <c r="S19" s="1">
-        <v>-97.609700</v>
+        <v>-97.609700000000004</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>40551.444106</v>
+        <v>40551.444106000003</v>
       </c>
       <c r="V19" s="1">
-        <v>11.264290</v>
+        <v>11.264290000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>960.613000</v>
+        <v>960.61300000000006</v>
       </c>
       <c r="X19" s="1">
-        <v>-86.332500</v>
+        <v>-86.332499999999996</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>40561.324908</v>
+        <v>40561.324908000002</v>
       </c>
       <c r="AA19" s="1">
         <v>11.267035</v>
       </c>
       <c r="AB19" s="1">
-        <v>968.629000</v>
+        <v>968.62900000000002</v>
       </c>
       <c r="AC19" s="1">
-        <v>-78.874400</v>
+        <v>-78.874399999999994</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>40571.465646</v>
+        <v>40571.465645999997</v>
       </c>
       <c r="AF19" s="1">
         <v>11.269852</v>
       </c>
       <c r="AG19" s="1">
-        <v>974.125000</v>
+        <v>974.125</v>
       </c>
       <c r="AH19" s="1">
-        <v>-79.285800</v>
+        <v>-79.285799999999995</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>40582.382064</v>
+        <v>40582.382063999998</v>
       </c>
       <c r="AK19" s="1">
-        <v>11.272884</v>
+        <v>11.272883999999999</v>
       </c>
       <c r="AL19" s="1">
-        <v>982.611000</v>
+        <v>982.61099999999999</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.621700</v>
+        <v>-87.621700000000004</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>40593.235522</v>
+        <v>40593.235522000003</v>
       </c>
       <c r="AP19" s="1">
-        <v>11.275899</v>
+        <v>11.275899000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>991.932000</v>
+        <v>991.93200000000002</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.950000</v>
+        <v>-102.95</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>40604.304244</v>
+        <v>40604.304243999999</v>
       </c>
       <c r="AU19" s="1">
-        <v>11.278973</v>
+        <v>11.278973000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>1003.470000</v>
+        <v>1003.47</v>
       </c>
       <c r="AW19" s="1">
-        <v>-124.796000</v>
+        <v>-124.79600000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>40615.241562</v>
+        <v>40615.241562000003</v>
       </c>
       <c r="AZ19" s="1">
         <v>11.282012</v>
       </c>
       <c r="BA19" s="1">
-        <v>1013.080000</v>
+        <v>1013.08</v>
       </c>
       <c r="BB19" s="1">
-        <v>-143.746000</v>
+        <v>-143.74600000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>40626.769574</v>
+        <v>40626.769573999998</v>
       </c>
       <c r="BE19" s="1">
         <v>11.285214</v>
       </c>
       <c r="BF19" s="1">
-        <v>1058.240000</v>
+        <v>1058.24</v>
       </c>
       <c r="BG19" s="1">
-        <v>-229.700000</v>
+        <v>-229.7</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>40638.141847</v>
+        <v>40638.141846999999</v>
       </c>
       <c r="BJ19" s="1">
         <v>11.288373</v>
       </c>
       <c r="BK19" s="1">
-        <v>1137.690000</v>
+        <v>1137.69</v>
       </c>
       <c r="BL19" s="1">
-        <v>-368.172000</v>
+        <v>-368.17200000000003</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>40648.610874</v>
+        <v>40648.610873999998</v>
       </c>
       <c r="BO19" s="1">
         <v>11.291281</v>
       </c>
       <c r="BP19" s="1">
-        <v>1269.660000</v>
+        <v>1269.6600000000001</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-583.172000</v>
+        <v>-583.17200000000003</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>40659.977721</v>
+        <v>40659.977721000003</v>
       </c>
       <c r="BT19" s="1">
         <v>11.294438</v>
       </c>
       <c r="BU19" s="1">
-        <v>1418.960000</v>
+        <v>1418.96</v>
       </c>
       <c r="BV19" s="1">
-        <v>-813.629000</v>
+        <v>-813.62900000000002</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>40671.094524</v>
@@ -5075,195 +5491,195 @@
         <v>11.297526</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1582.500000</v>
+        <v>1582.5</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1054.240000</v>
+        <v>-1054.24</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>40683.705307</v>
+        <v>40683.705306999997</v>
       </c>
       <c r="CD19" s="1">
         <v>11.301029</v>
       </c>
       <c r="CE19" s="1">
-        <v>1997.590000</v>
+        <v>1997.59</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1618.970000</v>
+        <v>-1618.97</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>40510.123424</v>
+        <v>40510.123423999998</v>
       </c>
       <c r="B20" s="1">
         <v>11.252812</v>
       </c>
       <c r="C20" s="1">
-        <v>914.079000</v>
+        <v>914.07899999999995</v>
       </c>
       <c r="D20" s="1">
-        <v>-175.308000</v>
+        <v>-175.30799999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>40520.560706</v>
+        <v>40520.560705999997</v>
       </c>
       <c r="G20" s="1">
         <v>11.255711</v>
       </c>
       <c r="H20" s="1">
-        <v>927.988000</v>
+        <v>927.98800000000006</v>
       </c>
       <c r="I20" s="1">
-        <v>-149.400000</v>
+        <v>-149.4</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>40531.427608</v>
+        <v>40531.427607999998</v>
       </c>
       <c r="L20" s="1">
-        <v>11.258730</v>
+        <v>11.25873</v>
       </c>
       <c r="M20" s="1">
-        <v>947.262000</v>
+        <v>947.26199999999994</v>
       </c>
       <c r="N20" s="1">
-        <v>-110.284000</v>
+        <v>-110.28400000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>40541.659528</v>
+        <v>40541.659527999996</v>
       </c>
       <c r="Q20" s="1">
-        <v>11.261572</v>
+        <v>11.261571999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>953.848000</v>
+        <v>953.84799999999996</v>
       </c>
       <c r="S20" s="1">
-        <v>-97.655100</v>
+        <v>-97.655100000000004</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>40551.785470</v>
+        <v>40551.785470000003</v>
       </c>
       <c r="V20" s="1">
-        <v>11.264385</v>
+        <v>11.264385000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>960.561000</v>
+        <v>960.56100000000004</v>
       </c>
       <c r="X20" s="1">
-        <v>-86.308200</v>
+        <v>-86.308199999999999</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>40561.672636</v>
+        <v>40561.672636000003</v>
       </c>
       <c r="AA20" s="1">
-        <v>11.267131</v>
+        <v>11.267130999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>968.512000</v>
+        <v>968.51199999999994</v>
       </c>
       <c r="AC20" s="1">
-        <v>-79.067200</v>
+        <v>-79.0672</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>40571.805871</v>
+        <v>40571.805870999997</v>
       </c>
       <c r="AF20" s="1">
-        <v>11.269946</v>
+        <v>11.269945999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>974.148000</v>
+        <v>974.14800000000002</v>
       </c>
       <c r="AH20" s="1">
-        <v>-79.269200</v>
+        <v>-79.269199999999998</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>40583.038767</v>
+        <v>40583.038766999998</v>
       </c>
       <c r="AK20" s="1">
         <v>11.273066</v>
       </c>
       <c r="AL20" s="1">
-        <v>982.583000</v>
+        <v>982.58299999999997</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.663200</v>
+        <v>-87.663200000000003</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>40593.902182</v>
+        <v>40593.902181999998</v>
       </c>
       <c r="AP20" s="1">
-        <v>11.276084</v>
+        <v>11.276084000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>991.968000</v>
+        <v>991.96799999999996</v>
       </c>
       <c r="AR20" s="1">
-        <v>-103.018000</v>
+        <v>-103.018</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>40604.742212</v>
+        <v>40604.742211999997</v>
       </c>
       <c r="AU20" s="1">
         <v>11.279095</v>
       </c>
       <c r="AV20" s="1">
-        <v>1003.460000</v>
+        <v>1003.46</v>
       </c>
       <c r="AW20" s="1">
-        <v>-124.800000</v>
+        <v>-124.8</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>40615.687956</v>
+        <v>40615.687956000002</v>
       </c>
       <c r="AZ20" s="1">
-        <v>11.282136</v>
+        <v>11.282135999999999</v>
       </c>
       <c r="BA20" s="1">
-        <v>1013.100000</v>
+        <v>1013.1</v>
       </c>
       <c r="BB20" s="1">
-        <v>-143.736000</v>
+        <v>-143.73599999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
         <v>40627.131621</v>
@@ -5272,165 +5688,165 @@
         <v>11.285314</v>
       </c>
       <c r="BF20" s="1">
-        <v>1058.220000</v>
+        <v>1058.22</v>
       </c>
       <c r="BG20" s="1">
-        <v>-229.676000</v>
+        <v>-229.67599999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>40638.518774</v>
+        <v>40638.518773999996</v>
       </c>
       <c r="BJ20" s="1">
         <v>11.288477</v>
       </c>
       <c r="BK20" s="1">
-        <v>1137.680000</v>
+        <v>1137.68</v>
       </c>
       <c r="BL20" s="1">
-        <v>-368.206000</v>
+        <v>-368.20600000000002</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>40649.033464</v>
       </c>
       <c r="BO20" s="1">
-        <v>11.291398</v>
+        <v>11.291397999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1269.690000</v>
+        <v>1269.69</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-583.092000</v>
+        <v>-583.09199999999998</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>40660.405768</v>
+        <v>40660.405767999997</v>
       </c>
       <c r="BT20" s="1">
-        <v>11.294557</v>
+        <v>11.294556999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>1418.860000</v>
+        <v>1418.86</v>
       </c>
       <c r="BV20" s="1">
-        <v>-813.784000</v>
+        <v>-813.78399999999999</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>40671.516122</v>
+        <v>40671.516122000001</v>
       </c>
       <c r="BY20" s="1">
-        <v>11.297643</v>
+        <v>11.297643000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1582.640000</v>
+        <v>1582.64</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1054.160000</v>
+        <v>-1054.1600000000001</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>40684.247466</v>
+        <v>40684.247466000001</v>
       </c>
       <c r="CD20" s="1">
-        <v>11.301180</v>
+        <v>11.30118</v>
       </c>
       <c r="CE20" s="1">
-        <v>1999.630000</v>
+        <v>1999.63</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1617.610000</v>
+        <v>-1617.61</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>40510.804927</v>
+        <v>40510.804926999997</v>
       </c>
       <c r="B21" s="1">
-        <v>11.253001</v>
+        <v>11.253000999999999</v>
       </c>
       <c r="C21" s="1">
-        <v>913.925000</v>
+        <v>913.92499999999995</v>
       </c>
       <c r="D21" s="1">
-        <v>-175.415000</v>
+        <v>-175.41499999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>40521.498679</v>
+        <v>40521.498678999997</v>
       </c>
       <c r="G21" s="1">
         <v>11.255972</v>
       </c>
       <c r="H21" s="1">
-        <v>927.372000</v>
+        <v>927.37199999999996</v>
       </c>
       <c r="I21" s="1">
-        <v>-149.312000</v>
+        <v>-149.31200000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>40531.772772</v>
+        <v>40531.772771999997</v>
       </c>
       <c r="L21" s="1">
-        <v>11.258826</v>
+        <v>11.258825999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>947.427000</v>
+        <v>947.42700000000002</v>
       </c>
       <c r="N21" s="1">
-        <v>-110.177000</v>
+        <v>-110.17700000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
         <v>40542.006726</v>
       </c>
       <c r="Q21" s="1">
-        <v>11.261669</v>
+        <v>11.261668999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>953.817000</v>
+        <v>953.81700000000001</v>
       </c>
       <c r="S21" s="1">
-        <v>-97.660000</v>
+        <v>-97.66</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>40552.130104</v>
+        <v>40552.130104000003</v>
       </c>
       <c r="V21" s="1">
         <v>11.264481</v>
       </c>
       <c r="W21" s="1">
-        <v>960.677000</v>
+        <v>960.67700000000002</v>
       </c>
       <c r="X21" s="1">
-        <v>-86.346900</v>
+        <v>-86.346900000000005</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
         <v>40562.325868</v>
@@ -5439,889 +5855,889 @@
         <v>11.267313</v>
       </c>
       <c r="AB21" s="1">
-        <v>968.631000</v>
+        <v>968.63099999999997</v>
       </c>
       <c r="AC21" s="1">
-        <v>-78.953800</v>
+        <v>-78.953800000000001</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>40572.459630</v>
+        <v>40572.459629999998</v>
       </c>
       <c r="AF21" s="1">
         <v>11.270128</v>
       </c>
       <c r="AG21" s="1">
-        <v>974.097000</v>
+        <v>974.09699999999998</v>
       </c>
       <c r="AH21" s="1">
-        <v>-79.265400</v>
+        <v>-79.2654</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>40583.426640</v>
+        <v>40583.426639999998</v>
       </c>
       <c r="AK21" s="1">
-        <v>11.273174</v>
+        <v>11.273173999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>982.572000</v>
+        <v>982.572</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.610300</v>
+        <v>-87.610299999999995</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>40594.316342</v>
+        <v>40594.316341999998</v>
       </c>
       <c r="AP21" s="1">
         <v>11.276199</v>
       </c>
       <c r="AQ21" s="1">
-        <v>991.984000</v>
+        <v>991.98400000000004</v>
       </c>
       <c r="AR21" s="1">
-        <v>-103.010000</v>
+        <v>-103.01</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>40605.109282</v>
+        <v>40605.109281999998</v>
       </c>
       <c r="AU21" s="1">
         <v>11.279197</v>
       </c>
       <c r="AV21" s="1">
-        <v>1003.470000</v>
+        <v>1003.47</v>
       </c>
       <c r="AW21" s="1">
-        <v>-124.797000</v>
+        <v>-124.797</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>40616.311431</v>
+        <v>40616.311431000002</v>
       </c>
       <c r="AZ21" s="1">
         <v>11.282309</v>
       </c>
       <c r="BA21" s="1">
-        <v>1013.110000</v>
+        <v>1013.11</v>
       </c>
       <c r="BB21" s="1">
-        <v>-143.749000</v>
+        <v>-143.749</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>40627.492246</v>
+        <v>40627.492246000002</v>
       </c>
       <c r="BE21" s="1">
         <v>11.285415</v>
       </c>
       <c r="BF21" s="1">
-        <v>1058.250000</v>
+        <v>1058.25</v>
       </c>
       <c r="BG21" s="1">
-        <v>-229.686000</v>
+        <v>-229.68600000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>40638.926981</v>
+        <v>40638.926980999997</v>
       </c>
       <c r="BJ21" s="1">
         <v>11.288591</v>
       </c>
       <c r="BK21" s="1">
-        <v>1137.650000</v>
+        <v>1137.6500000000001</v>
       </c>
       <c r="BL21" s="1">
-        <v>-368.189000</v>
+        <v>-368.18900000000002</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>40649.452089</v>
+        <v>40649.452088999999</v>
       </c>
       <c r="BO21" s="1">
-        <v>11.291514</v>
+        <v>11.291513999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1269.680000</v>
+        <v>1269.68</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-583.111000</v>
+        <v>-583.11099999999999</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>40660.817955</v>
+        <v>40660.817954999999</v>
       </c>
       <c r="BT21" s="1">
         <v>11.294672</v>
       </c>
       <c r="BU21" s="1">
-        <v>1418.850000</v>
+        <v>1418.85</v>
       </c>
       <c r="BV21" s="1">
-        <v>-813.785000</v>
+        <v>-813.78499999999997</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>40671.937722</v>
+        <v>40671.937722000002</v>
       </c>
       <c r="BY21" s="1">
-        <v>11.297760</v>
+        <v>11.29776</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1582.570000</v>
+        <v>1582.57</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1054.290000</v>
+        <v>-1054.29</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>40684.785098</v>
       </c>
       <c r="CD21" s="1">
-        <v>11.301329</v>
+        <v>11.301329000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>1997.630000</v>
+        <v>1997.63</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1617.360000</v>
+        <v>-1617.36</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>40511.148655</v>
+        <v>40511.148654999997</v>
       </c>
       <c r="B22" s="1">
         <v>11.253097</v>
       </c>
       <c r="C22" s="1">
-        <v>913.870000</v>
+        <v>913.87</v>
       </c>
       <c r="D22" s="1">
-        <v>-175.359000</v>
+        <v>-175.35900000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>40521.951520</v>
+        <v>40521.951520000002</v>
       </c>
       <c r="G22" s="1">
         <v>11.256098</v>
       </c>
       <c r="H22" s="1">
-        <v>927.655000</v>
+        <v>927.65499999999997</v>
       </c>
       <c r="I22" s="1">
-        <v>-149.892000</v>
+        <v>-149.892</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>40532.118483</v>
+        <v>40532.118482999998</v>
       </c>
       <c r="L22" s="1">
         <v>11.258922</v>
       </c>
       <c r="M22" s="1">
-        <v>947.381000</v>
+        <v>947.38099999999997</v>
       </c>
       <c r="N22" s="1">
-        <v>-110.487000</v>
+        <v>-110.48699999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>40542.658966</v>
+        <v>40542.658966000003</v>
       </c>
       <c r="Q22" s="1">
-        <v>11.261850</v>
+        <v>11.261850000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>953.763000</v>
+        <v>953.76300000000003</v>
       </c>
       <c r="S22" s="1">
-        <v>-97.609200</v>
+        <v>-97.609200000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>40552.784296</v>
+        <v>40552.784295999998</v>
       </c>
       <c r="V22" s="1">
         <v>11.264662</v>
       </c>
       <c r="W22" s="1">
-        <v>960.623000</v>
+        <v>960.62300000000005</v>
       </c>
       <c r="X22" s="1">
-        <v>-86.316900</v>
+        <v>-86.316900000000004</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>40562.717180</v>
+        <v>40562.71718</v>
       </c>
       <c r="AA22" s="1">
-        <v>11.267421</v>
+        <v>11.267421000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>968.633000</v>
+        <v>968.63300000000004</v>
       </c>
       <c r="AC22" s="1">
-        <v>-78.795900</v>
+        <v>-78.795900000000003</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>40572.836557</v>
+        <v>40572.836557000002</v>
       </c>
       <c r="AF22" s="1">
         <v>11.270232</v>
       </c>
       <c r="AG22" s="1">
-        <v>974.110000</v>
+        <v>974.11</v>
       </c>
       <c r="AH22" s="1">
-        <v>-79.270700</v>
+        <v>-79.270700000000005</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>40583.777806</v>
+        <v>40583.777805999998</v>
       </c>
       <c r="AK22" s="1">
         <v>11.273272</v>
       </c>
       <c r="AL22" s="1">
-        <v>982.575000</v>
+        <v>982.57500000000005</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.625900</v>
+        <v>-87.625900000000001</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>40594.696737</v>
+        <v>40594.696736999998</v>
       </c>
       <c r="AP22" s="1">
-        <v>11.276305</v>
+        <v>11.276305000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>991.977000</v>
+        <v>991.97699999999998</v>
       </c>
       <c r="AR22" s="1">
-        <v>-103.005000</v>
+        <v>-103.005</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>40605.473810</v>
+        <v>40605.473810000003</v>
       </c>
       <c r="AU22" s="1">
-        <v>11.279298</v>
+        <v>11.279298000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1003.460000</v>
+        <v>1003.46</v>
       </c>
       <c r="AW22" s="1">
-        <v>-124.795000</v>
+        <v>-124.795</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>40616.423529</v>
       </c>
       <c r="AZ22" s="1">
-        <v>11.282340</v>
+        <v>11.28234</v>
       </c>
       <c r="BA22" s="1">
-        <v>1013.090000</v>
+        <v>1013.09</v>
       </c>
       <c r="BB22" s="1">
-        <v>-143.723000</v>
+        <v>-143.72300000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>40627.913849</v>
+        <v>40627.913848999997</v>
       </c>
       <c r="BE22" s="1">
         <v>11.285532</v>
       </c>
       <c r="BF22" s="1">
-        <v>1058.250000</v>
+        <v>1058.25</v>
       </c>
       <c r="BG22" s="1">
-        <v>-229.699000</v>
+        <v>-229.69900000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>40639.296533</v>
+        <v>40639.296533000001</v>
       </c>
       <c r="BJ22" s="1">
         <v>11.288693</v>
       </c>
       <c r="BK22" s="1">
-        <v>1137.690000</v>
+        <v>1137.69</v>
       </c>
       <c r="BL22" s="1">
-        <v>-368.160000</v>
+        <v>-368.16</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>40649.850873</v>
+        <v>40649.850873000003</v>
       </c>
       <c r="BO22" s="1">
         <v>11.291625</v>
       </c>
       <c r="BP22" s="1">
-        <v>1269.670000</v>
+        <v>1269.67</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-583.126000</v>
+        <v>-583.12599999999998</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>40661.249960</v>
+        <v>40661.249960000001</v>
       </c>
       <c r="BT22" s="1">
-        <v>11.294792</v>
+        <v>11.294791999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>1418.770000</v>
+        <v>1418.77</v>
       </c>
       <c r="BV22" s="1">
-        <v>-813.762000</v>
+        <v>-813.76199999999994</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>40672.392057</v>
+        <v>40672.392056999997</v>
       </c>
       <c r="BY22" s="1">
-        <v>11.297887</v>
+        <v>11.297886999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1582.610000</v>
+        <v>1582.61</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1054.230000</v>
+        <v>-1054.23</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>40685.325273</v>
+        <v>40685.325273000002</v>
       </c>
       <c r="CD22" s="1">
         <v>11.301479</v>
       </c>
       <c r="CE22" s="1">
-        <v>1998.820000</v>
+        <v>1998.82</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1619.070000</v>
+        <v>-1619.07</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>40511.490862</v>
+        <v>40511.490861999999</v>
       </c>
       <c r="B23" s="1">
         <v>11.253192</v>
       </c>
       <c r="C23" s="1">
-        <v>914.022000</v>
+        <v>914.02200000000005</v>
       </c>
       <c r="D23" s="1">
-        <v>-175.528000</v>
+        <v>-175.52799999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>40522.628565</v>
+        <v>40522.628564999999</v>
       </c>
       <c r="G23" s="1">
-        <v>11.256286</v>
+        <v>11.256285999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>927.604000</v>
+        <v>927.60400000000004</v>
       </c>
       <c r="I23" s="1">
-        <v>-149.710000</v>
+        <v>-149.71</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>40532.771217</v>
+        <v>40532.771217000001</v>
       </c>
       <c r="L23" s="1">
         <v>11.259103</v>
       </c>
       <c r="M23" s="1">
-        <v>947.538000</v>
+        <v>947.53800000000001</v>
       </c>
       <c r="N23" s="1">
-        <v>-110.519000</v>
+        <v>-110.51900000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>40543.053782</v>
+        <v>40543.053782000003</v>
       </c>
       <c r="Q23" s="1">
-        <v>11.261959</v>
+        <v>11.261958999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>953.819000</v>
+        <v>953.81899999999996</v>
       </c>
       <c r="S23" s="1">
-        <v>-97.604400</v>
+        <v>-97.604399999999998</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>40553.164763</v>
+        <v>40553.164763000001</v>
       </c>
       <c r="V23" s="1">
         <v>11.264768</v>
       </c>
       <c r="W23" s="1">
-        <v>960.681000</v>
+        <v>960.68100000000004</v>
       </c>
       <c r="X23" s="1">
-        <v>-86.351900</v>
+        <v>-86.351900000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>40563.055945</v>
       </c>
       <c r="AA23" s="1">
-        <v>11.267516</v>
+        <v>11.267516000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>968.655000</v>
+        <v>968.65499999999997</v>
       </c>
       <c r="AC23" s="1">
-        <v>-78.910200</v>
+        <v>-78.910200000000003</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>40573.181278</v>
+        <v>40573.181277999996</v>
       </c>
       <c r="AF23" s="1">
-        <v>11.270328</v>
+        <v>11.270327999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>974.142000</v>
+        <v>974.14200000000005</v>
       </c>
       <c r="AH23" s="1">
-        <v>-79.271000</v>
+        <v>-79.271000000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>40584.125502</v>
+        <v>40584.125502000003</v>
       </c>
       <c r="AK23" s="1">
         <v>11.273368</v>
       </c>
       <c r="AL23" s="1">
-        <v>982.585000</v>
+        <v>982.58500000000004</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.625500</v>
+        <v>-87.625500000000002</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>40595.055840</v>
+        <v>40595.055840000001</v>
       </c>
       <c r="AP23" s="1">
-        <v>11.276404</v>
+        <v>11.276403999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>992.004000</v>
+        <v>992.00400000000002</v>
       </c>
       <c r="AR23" s="1">
-        <v>-103.004000</v>
+        <v>-103.004</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>40605.892433</v>
+        <v>40605.892433000001</v>
       </c>
       <c r="AU23" s="1">
         <v>11.279415</v>
       </c>
       <c r="AV23" s="1">
-        <v>1003.480000</v>
+        <v>1003.48</v>
       </c>
       <c r="AW23" s="1">
-        <v>-124.816000</v>
+        <v>-124.816</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>40617.177906</v>
+        <v>40617.177905999997</v>
       </c>
       <c r="AZ23" s="1">
-        <v>11.282549</v>
+        <v>11.282548999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1013.100000</v>
+        <v>1013.1</v>
       </c>
       <c r="BB23" s="1">
-        <v>-143.734000</v>
+        <v>-143.73400000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>40628.216410</v>
+        <v>40628.216410000001</v>
       </c>
       <c r="BE23" s="1">
-        <v>11.285616</v>
+        <v>11.285615999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1058.220000</v>
+        <v>1058.22</v>
       </c>
       <c r="BG23" s="1">
-        <v>-229.689000</v>
+        <v>-229.68899999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>40639.669989</v>
+        <v>40639.669989000002</v>
       </c>
       <c r="BJ23" s="1">
-        <v>11.288797</v>
+        <v>11.288797000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1137.700000</v>
+        <v>1137.7</v>
       </c>
       <c r="BL23" s="1">
-        <v>-368.209000</v>
+        <v>-368.209</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>40650.251640</v>
+        <v>40650.251640000002</v>
       </c>
       <c r="BO23" s="1">
-        <v>11.291737</v>
+        <v>11.291736999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1269.650000</v>
+        <v>1269.6500000000001</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-583.127000</v>
+        <v>-583.12699999999995</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>40661.679465</v>
+        <v>40661.679465000001</v>
       </c>
       <c r="BT23" s="1">
-        <v>11.294911</v>
+        <v>11.294911000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1418.670000</v>
+        <v>1418.67</v>
       </c>
       <c r="BV23" s="1">
-        <v>-813.766000</v>
+        <v>-813.76599999999996</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>40672.802745</v>
+        <v>40672.802745000001</v>
       </c>
       <c r="BY23" s="1">
-        <v>11.298001</v>
+        <v>11.298000999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1582.600000</v>
+        <v>1582.6</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1054.140000</v>
+        <v>-1054.1400000000001</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>40685.867865</v>
       </c>
       <c r="CD23" s="1">
-        <v>11.301630</v>
+        <v>11.301629999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>1998.190000</v>
+        <v>1998.19</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1616.740000</v>
+        <v>-1616.74</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>40512.144589</v>
+        <v>40512.144589000003</v>
       </c>
       <c r="B24" s="1">
         <v>11.253373</v>
       </c>
       <c r="C24" s="1">
-        <v>913.852000</v>
+        <v>913.85199999999998</v>
       </c>
       <c r="D24" s="1">
-        <v>-175.520000</v>
+        <v>-175.52</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>40522.972255</v>
+        <v>40522.972255000001</v>
       </c>
       <c r="G24" s="1">
-        <v>11.256381</v>
+        <v>11.256380999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>927.639000</v>
+        <v>927.63900000000001</v>
       </c>
       <c r="I24" s="1">
-        <v>-149.841000</v>
+        <v>-149.84100000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>40533.157106</v>
+        <v>40533.157105999999</v>
       </c>
       <c r="L24" s="1">
-        <v>11.259210</v>
+        <v>11.259209999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>947.463000</v>
+        <v>947.46299999999997</v>
       </c>
       <c r="N24" s="1">
-        <v>-110.480000</v>
+        <v>-110.48</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>40543.402467</v>
       </c>
       <c r="Q24" s="1">
-        <v>11.262056</v>
+        <v>11.262055999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>953.832000</v>
+        <v>953.83199999999999</v>
       </c>
       <c r="S24" s="1">
-        <v>-97.619300</v>
+        <v>-97.619299999999996</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>40553.516390</v>
+        <v>40553.516389999997</v>
       </c>
       <c r="V24" s="1">
         <v>11.264866</v>
       </c>
       <c r="W24" s="1">
-        <v>960.582000</v>
+        <v>960.58199999999999</v>
       </c>
       <c r="X24" s="1">
-        <v>-86.327100</v>
+        <v>-86.327100000000002</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>40563.415579</v>
       </c>
       <c r="AA24" s="1">
-        <v>11.267615</v>
+        <v>11.267614999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>968.562000</v>
+        <v>968.56200000000001</v>
       </c>
       <c r="AC24" s="1">
-        <v>-78.851500</v>
+        <v>-78.851500000000001</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>40573.523517</v>
+        <v>40573.523517000001</v>
       </c>
       <c r="AF24" s="1">
-        <v>11.270423</v>
+        <v>11.270422999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>974.154000</v>
+        <v>974.154</v>
       </c>
       <c r="AH24" s="1">
-        <v>-79.244000</v>
+        <v>-79.244</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>40584.544659</v>
+        <v>40584.544658999999</v>
       </c>
       <c r="AK24" s="1">
-        <v>11.273485</v>
+        <v>11.273485000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>982.612000</v>
+        <v>982.61199999999997</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.626300</v>
+        <v>-87.626300000000001</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>40595.486367</v>
+        <v>40595.486366999998</v>
       </c>
       <c r="AP24" s="1">
         <v>11.276524</v>
       </c>
       <c r="AQ24" s="1">
-        <v>991.972000</v>
+        <v>991.97199999999998</v>
       </c>
       <c r="AR24" s="1">
-        <v>-103.030000</v>
+        <v>-103.03</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>40606.202929</v>
+        <v>40606.202928999999</v>
       </c>
       <c r="AU24" s="1">
         <v>11.279501</v>
       </c>
       <c r="AV24" s="1">
-        <v>1003.470000</v>
+        <v>1003.47</v>
       </c>
       <c r="AW24" s="1">
-        <v>-124.781000</v>
+        <v>-124.78100000000001</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>40617.536049</v>
+        <v>40617.536049000002</v>
       </c>
       <c r="AZ24" s="1">
-        <v>11.282649</v>
+        <v>11.282648999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1013.090000</v>
+        <v>1013.09</v>
       </c>
       <c r="BB24" s="1">
-        <v>-143.741000</v>
+        <v>-143.74100000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>40628.576468</v>
+        <v>40628.576467999999</v>
       </c>
       <c r="BE24" s="1">
-        <v>11.285716</v>
+        <v>11.285716000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1058.250000</v>
+        <v>1058.25</v>
       </c>
       <c r="BG24" s="1">
-        <v>-229.699000</v>
+        <v>-229.69900000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>40640.046948</v>
+        <v>40640.046948000003</v>
       </c>
       <c r="BJ24" s="1">
         <v>11.288902</v>
       </c>
       <c r="BK24" s="1">
-        <v>1137.670000</v>
+        <v>1137.67</v>
       </c>
       <c r="BL24" s="1">
-        <v>-368.204000</v>
+        <v>-368.20400000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>40650.668801</v>
@@ -6330,135 +6746,135 @@
         <v>11.291852</v>
       </c>
       <c r="BP24" s="1">
-        <v>1269.710000</v>
+        <v>1269.71</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-583.106000</v>
+        <v>-583.10599999999999</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>40662.102551</v>
+        <v>40662.102551000004</v>
       </c>
       <c r="BT24" s="1">
         <v>11.295028</v>
       </c>
       <c r="BU24" s="1">
-        <v>1418.620000</v>
+        <v>1418.62</v>
       </c>
       <c r="BV24" s="1">
-        <v>-813.776000</v>
+        <v>-813.77599999999995</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>40673.265513</v>
+        <v>40673.265512999998</v>
       </c>
       <c r="BY24" s="1">
-        <v>11.298129</v>
+        <v>11.298128999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1582.550000</v>
+        <v>1582.55</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1054.270000</v>
+        <v>-1054.27</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>40686.406710</v>
+        <v>40686.406710000003</v>
       </c>
       <c r="CD24" s="1">
-        <v>11.301780</v>
+        <v>11.301780000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>1998.030000</v>
+        <v>1998.03</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1618.700000</v>
+        <v>-1618.7</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>40512.515597</v>
+        <v>40512.515596999998</v>
       </c>
       <c r="B25" s="1">
         <v>11.253477</v>
       </c>
       <c r="C25" s="1">
-        <v>914.006000</v>
+        <v>914.00599999999997</v>
       </c>
       <c r="D25" s="1">
-        <v>-175.397000</v>
+        <v>-175.39699999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>40523.316480</v>
+        <v>40523.316480000001</v>
       </c>
       <c r="G25" s="1">
         <v>11.256477</v>
       </c>
       <c r="H25" s="1">
-        <v>927.620000</v>
+        <v>927.62</v>
       </c>
       <c r="I25" s="1">
-        <v>-149.790000</v>
+        <v>-149.79</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>40533.503943</v>
+        <v>40533.503943000003</v>
       </c>
       <c r="L25" s="1">
         <v>11.259307</v>
       </c>
       <c r="M25" s="1">
-        <v>947.348000</v>
+        <v>947.34799999999996</v>
       </c>
       <c r="N25" s="1">
-        <v>-110.398000</v>
+        <v>-110.398</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>40543.751155</v>
+        <v>40543.751154999998</v>
       </c>
       <c r="Q25" s="1">
         <v>11.262153</v>
       </c>
       <c r="R25" s="1">
-        <v>953.826000</v>
+        <v>953.82600000000002</v>
       </c>
       <c r="S25" s="1">
-        <v>-97.630100</v>
+        <v>-97.630099999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>40553.856646</v>
       </c>
       <c r="V25" s="1">
-        <v>11.264960</v>
+        <v>11.26496</v>
       </c>
       <c r="W25" s="1">
-        <v>960.636000</v>
+        <v>960.63599999999997</v>
       </c>
       <c r="X25" s="1">
-        <v>-86.371200</v>
+        <v>-86.371200000000002</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>40563.845577</v>
@@ -6467,270 +6883,270 @@
         <v>11.267735</v>
       </c>
       <c r="AB25" s="1">
-        <v>968.738000</v>
+        <v>968.73800000000006</v>
       </c>
       <c r="AC25" s="1">
-        <v>-78.791800</v>
+        <v>-78.791799999999995</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>40573.940683</v>
+        <v>40573.940683000001</v>
       </c>
       <c r="AF25" s="1">
-        <v>11.270539</v>
+        <v>11.270538999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>974.129000</v>
+        <v>974.12900000000002</v>
       </c>
       <c r="AH25" s="1">
-        <v>-79.265800</v>
+        <v>-79.265799999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>40584.824401</v>
+        <v>40584.824400999998</v>
       </c>
       <c r="AK25" s="1">
         <v>11.273562</v>
       </c>
       <c r="AL25" s="1">
-        <v>982.586000</v>
+        <v>982.58600000000001</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.606700</v>
+        <v>-87.606700000000004</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>40595.780495</v>
+        <v>40595.780494999999</v>
       </c>
       <c r="AP25" s="1">
-        <v>11.276606</v>
+        <v>11.276605999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>992.012000</v>
+        <v>992.01199999999994</v>
       </c>
       <c r="AR25" s="1">
-        <v>-103.040000</v>
+        <v>-103.04</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>40606.567490</v>
+        <v>40606.567490000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>11.279602</v>
+        <v>11.279602000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>1003.470000</v>
+        <v>1003.47</v>
       </c>
       <c r="AW25" s="1">
-        <v>-124.784000</v>
+        <v>-124.78400000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>40617.895154</v>
+        <v>40617.895153999998</v>
       </c>
       <c r="AZ25" s="1">
-        <v>11.282749</v>
+        <v>11.282749000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1013.090000</v>
+        <v>1013.09</v>
       </c>
       <c r="BB25" s="1">
-        <v>-143.718000</v>
+        <v>-143.71799999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>40628.939538</v>
+        <v>40628.939537999999</v>
       </c>
       <c r="BE25" s="1">
         <v>11.285817</v>
       </c>
       <c r="BF25" s="1">
-        <v>1058.250000</v>
+        <v>1058.25</v>
       </c>
       <c r="BG25" s="1">
-        <v>-229.709000</v>
+        <v>-229.709</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>40640.797891</v>
+        <v>40640.797891000002</v>
       </c>
       <c r="BJ25" s="1">
         <v>11.289111</v>
       </c>
       <c r="BK25" s="1">
-        <v>1137.670000</v>
+        <v>1137.67</v>
       </c>
       <c r="BL25" s="1">
-        <v>-368.201000</v>
+        <v>-368.20100000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>40651.484725</v>
+        <v>40651.484725000002</v>
       </c>
       <c r="BO25" s="1">
-        <v>11.292079</v>
+        <v>11.292078999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1269.660000</v>
+        <v>1269.6600000000001</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-583.075000</v>
+        <v>-583.07500000000005</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>40662.521670</v>
+        <v>40662.521670000002</v>
       </c>
       <c r="BT25" s="1">
         <v>11.295145</v>
       </c>
       <c r="BU25" s="1">
-        <v>1418.570000</v>
+        <v>1418.57</v>
       </c>
       <c r="BV25" s="1">
-        <v>-813.759000</v>
+        <v>-813.75900000000001</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>40673.709962</v>
+        <v>40673.709962000001</v>
       </c>
       <c r="BY25" s="1">
-        <v>11.298253</v>
+        <v>11.298253000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1582.560000</v>
+        <v>1582.56</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1053.940000</v>
+        <v>-1053.94</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>40686.946167</v>
+        <v>40686.946167000002</v>
       </c>
       <c r="CD25" s="1">
-        <v>11.301929</v>
+        <v>11.301928999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>1999.240000</v>
+        <v>1999.24</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1617.680000</v>
+        <v>-1617.68</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>40512.860847</v>
+        <v>40512.860847000004</v>
       </c>
       <c r="B26" s="1">
         <v>11.253572</v>
       </c>
       <c r="C26" s="1">
-        <v>913.969000</v>
+        <v>913.96900000000005</v>
       </c>
       <c r="D26" s="1">
-        <v>-175.368000</v>
+        <v>-175.36799999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>40523.659742</v>
+        <v>40523.659742000003</v>
       </c>
       <c r="G26" s="1">
         <v>11.256572</v>
       </c>
       <c r="H26" s="1">
-        <v>927.647000</v>
+        <v>927.64700000000005</v>
       </c>
       <c r="I26" s="1">
-        <v>-149.894000</v>
+        <v>-149.89400000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>40533.849026</v>
+        <v>40533.849026000004</v>
       </c>
       <c r="L26" s="1">
-        <v>11.259403</v>
+        <v>11.259403000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>947.340000</v>
+        <v>947.34</v>
       </c>
       <c r="N26" s="1">
-        <v>-110.331000</v>
+        <v>-110.331</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>40544.169284</v>
+        <v>40544.169284000003</v>
       </c>
       <c r="Q26" s="1">
         <v>11.262269</v>
       </c>
       <c r="R26" s="1">
-        <v>953.808000</v>
+        <v>953.80799999999999</v>
       </c>
       <c r="S26" s="1">
-        <v>-97.653200</v>
+        <v>-97.653199999999998</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>40554.277749</v>
+        <v>40554.277749000001</v>
       </c>
       <c r="V26" s="1">
         <v>11.265077</v>
       </c>
       <c r="W26" s="1">
-        <v>960.601000</v>
+        <v>960.601</v>
       </c>
       <c r="X26" s="1">
-        <v>-86.298600</v>
+        <v>-86.298599999999993</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>40564.125320</v>
+        <v>40564.125319999999</v>
       </c>
       <c r="AA26" s="1">
         <v>11.267813</v>
       </c>
       <c r="AB26" s="1">
-        <v>968.628000</v>
+        <v>968.62800000000004</v>
       </c>
       <c r="AC26" s="1">
-        <v>-78.880100</v>
+        <v>-78.880099999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
         <v>40574.236267</v>
@@ -6739,165 +7155,166 @@
         <v>11.270621</v>
       </c>
       <c r="AG26" s="1">
-        <v>974.151000</v>
+        <v>974.15099999999995</v>
       </c>
       <c r="AH26" s="1">
-        <v>-79.251600</v>
+        <v>-79.251599999999996</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>40585.174044</v>
+        <v>40585.174043999999</v>
       </c>
       <c r="AK26" s="1">
         <v>11.273659</v>
       </c>
       <c r="AL26" s="1">
-        <v>982.617000</v>
+        <v>982.61699999999996</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.612800</v>
+        <v>-87.612799999999993</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>40596.139598</v>
+        <v>40596.139598000002</v>
       </c>
       <c r="AP26" s="1">
         <v>11.276705</v>
       </c>
       <c r="AQ26" s="1">
-        <v>991.990000</v>
+        <v>991.99</v>
       </c>
       <c r="AR26" s="1">
-        <v>-103.010000</v>
+        <v>-103.01</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>40606.929604</v>
+        <v>40606.929603999997</v>
       </c>
       <c r="AU26" s="1">
         <v>11.279703</v>
       </c>
       <c r="AV26" s="1">
-        <v>1003.470000</v>
+        <v>1003.47</v>
       </c>
       <c r="AW26" s="1">
-        <v>-124.803000</v>
+        <v>-124.803</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>40618.621792</v>
+        <v>40618.621791999998</v>
       </c>
       <c r="AZ26" s="1">
-        <v>11.282950</v>
+        <v>11.28295</v>
       </c>
       <c r="BA26" s="1">
-        <v>1013.100000</v>
+        <v>1013.1</v>
       </c>
       <c r="BB26" s="1">
-        <v>-143.739000</v>
+        <v>-143.739</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>40629.659760</v>
+        <v>40629.659760000002</v>
       </c>
       <c r="BE26" s="1">
-        <v>11.286017</v>
+        <v>11.286016999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1058.230000</v>
+        <v>1058.23</v>
       </c>
       <c r="BG26" s="1">
-        <v>-229.695000</v>
+        <v>-229.69499999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>40641.173364</v>
+        <v>40641.173364000002</v>
       </c>
       <c r="BJ26" s="1">
         <v>11.289215</v>
       </c>
       <c r="BK26" s="1">
-        <v>1137.670000</v>
+        <v>1137.67</v>
       </c>
       <c r="BL26" s="1">
-        <v>-368.182000</v>
+        <v>-368.18200000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>40651.903316</v>
+        <v>40651.903316000004</v>
       </c>
       <c r="BO26" s="1">
         <v>11.292195</v>
       </c>
       <c r="BP26" s="1">
-        <v>1269.690000</v>
+        <v>1269.69</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-583.128000</v>
+        <v>-583.12800000000004</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>40662.951206</v>
+        <v>40662.951205999998</v>
       </c>
       <c r="BT26" s="1">
         <v>11.295264</v>
       </c>
       <c r="BU26" s="1">
-        <v>1418.450000</v>
+        <v>1418.45</v>
       </c>
       <c r="BV26" s="1">
-        <v>-813.819000</v>
+        <v>-813.81899999999996</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>40674.143959</v>
+        <v>40674.143959000001</v>
       </c>
       <c r="BY26" s="1">
         <v>11.298373</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1582.440000</v>
+        <v>1582.44</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1054.190000</v>
+        <v>-1054.19</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>40687.788870</v>
+        <v>40687.788869999997</v>
       </c>
       <c r="CD26" s="1">
-        <v>11.302164</v>
+        <v>11.302163999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>1998.340000</v>
+        <v>1998.34</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1618.930000</v>
+        <v>-1618.93</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>